--- a/Data y gráficos/Gráficos de Tesis/IRF mix 10k.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/IRF mix 10k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{38C8FC21-F99F-493F-87A4-30AF0D708C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4C8A28-599F-4014-98AA-55161A4BEDC0}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{38C8FC21-F99F-493F-87A4-30AF0D708C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B22C7E-CA98-41B4-87C7-E906DC8405E4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{EB32E95A-9985-401E-BEBB-58CB6A031C0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB32E95A-9985-401E-BEBB-58CB6A031C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Findex shock" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BANKCON</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1160,6 +1161,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-1.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1290,9 +1293,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>CONSUM</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1669,6 +1673,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1799,7 +1805,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>PBI</a:t>
             </a:r>
           </a:p>
@@ -2178,6 +2184,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2224,6 +2232,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2308,9 +2317,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BZSCORE</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2687,6 +2697,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2733,6 +2745,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2817,7 +2830,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>IPC</a:t>
             </a:r>
           </a:p>
@@ -3196,6 +3209,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3242,6 +3257,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3326,9 +3342,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>INVEST</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3705,6 +3722,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3751,6 +3770,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3835,9 +3855,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BANKCON</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4214,6 +4235,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="-1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4260,6 +4283,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4344,7 +4368,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>CONSUM</a:t>
             </a:r>
           </a:p>
@@ -4723,6 +4747,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4769,6 +4795,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4853,9 +4880,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>PBI</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5232,6 +5260,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5278,6 +5308,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5362,9 +5393,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BZSCORE</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5741,6 +5773,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6380,7 +6413,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>IPC</a:t>
             </a:r>
           </a:p>
@@ -6759,6 +6792,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6889,9 +6923,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>INVEST</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7268,6 +7303,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.95000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7398,9 +7434,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BANKCON</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7777,6 +7814,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7907,7 +7945,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>CONSUM</a:t>
             </a:r>
           </a:p>
@@ -8286,6 +8324,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8416,9 +8455,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>PBI</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8795,6 +8835,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.95000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16199,7 +16240,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BZSCORE</a:t>
             </a:r>
           </a:p>
@@ -16578,6 +16619,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16624,6 +16666,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16708,9 +16751,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>IPC</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -17087,6 +17131,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-0.95000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17217,9 +17263,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>INVEST</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -17596,6 +17643,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17642,6 +17691,7 @@
         <c:crossAx val="1682053983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -40512,8 +40562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E68867-65F3-4B0A-BC82-0B17127D067A}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:N49"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42129,8 +42179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9A7AB5-9A3F-4DAF-941C-31D03FD81CBF}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:N49"/>
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43746,8 +43796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6F6E1-60F5-4D2C-99B8-00E0144214E8}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:N49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45363,8 +45413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A0A6CC-5FB7-4989-9840-22BF9C6E7118}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:N49"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46980,8 +47030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB1C99-76BC-4C9B-B7C2-873CB854D918}">
   <dimension ref="B4:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data y gráficos/Gráficos de Tesis/IRF mix 10k.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/IRF mix 10k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{38C8FC21-F99F-493F-87A4-30AF0D708C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B22C7E-CA98-41B4-87C7-E906DC8405E4}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{38C8FC21-F99F-493F-87A4-30AF0D708C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDCFED4-FBC7-4638-ABBA-5DF4FFF2F15B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{EB32E95A-9985-401E-BEBB-58CB6A031C0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{EB32E95A-9985-401E-BEBB-58CB6A031C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Findex shock" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,9 @@
     <sheet name="Prof shock" sheetId="4" r:id="rId3"/>
     <sheet name="Uso shock" sheetId="6" r:id="rId4"/>
     <sheet name="Mix" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>response of BZSCORE to FINDEX shocks</t>
   </si>
@@ -182,14 +178,164 @@
   <si>
     <t>Profundidad</t>
   </si>
+  <si>
+    <t>Excluidos voluntarios</t>
+  </si>
+  <si>
+    <t>Excluidos involuntarios</t>
+  </si>
+  <si>
+    <t>Excluidos voluntarios e involuntarios</t>
+  </si>
+  <si>
+    <t>Factor de demanda</t>
+  </si>
+  <si>
+    <t>Factores de oferta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Coyuntura económica favorable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mayor confianza institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mayor educación financiera</t>
+  </si>
+  <si>
+    <t>Individuos con acceso al sistema financiero que, previa y voluntariamente, decidieron no usar servicios y productos financieros, pero que ahora los demandan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Políticas de inclusión financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Programas de bancarización</t>
+  </si>
+  <si>
+    <t>Individuos que previamente no tenian medios de acceso no digitales al sistema financiero, por lo que no podían si quiera demandarlos, pero que ahora tienen alcance geográfico y demográfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Marco regulatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Políticas bancarias activas de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crédito</t>
+  </si>
+  <si>
+    <t>Razones del choque estructural</t>
+  </si>
+  <si>
+    <t>Individuos excluídos del sistema financiero que dejan de serlos, ya sea por el nivel intermediación financiera actual o por decisiones estratégicas y regulatorias de los bancos</t>
+  </si>
+  <si>
+    <t>Submuestra 1</t>
+  </si>
+  <si>
+    <t>Submuestra 2</t>
+  </si>
+  <si>
+    <t>Submuestra 3</t>
+  </si>
+  <si>
+    <t>Modelo findex</t>
+  </si>
+  <si>
+    <t>Modelo de dimensiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-test para </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolgomorov - Smirnov Test para </t>
+  </si>
+  <si>
+    <t>206/217</t>
+  </si>
+  <si>
+    <t>332/351</t>
+  </si>
+  <si>
+    <t>338/351</t>
+  </si>
+  <si>
+    <t>328/351</t>
+  </si>
+  <si>
+    <t>180/217</t>
+  </si>
+  <si>
+    <t>179/217</t>
+  </si>
+  <si>
+    <t>176/217</t>
+  </si>
+  <si>
+    <t>292/351</t>
+  </si>
+  <si>
+    <t>296/351</t>
+  </si>
+  <si>
+    <t>288/351</t>
+  </si>
+  <si>
+    <t>202/217</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -204,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -212,13 +358,427 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1358,7 +1918,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.13469376841767439</c:v>
+                  <c:v>0.134693768417674</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.1352163530164599E-2</c:v>
@@ -34581,14 +35141,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344330</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>481100</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>147901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146540</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283309</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
@@ -34695,16 +35255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457517</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340285</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>156306</xdr:rowOff>
+      <xdr:rowOff>146536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283307</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166076</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>19538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34780,7 +35340,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>165953</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>185614</xdr:rowOff>
+      <xdr:rowOff>156308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34814,14 +35374,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344330</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>471331</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>147901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146540</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273540</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
@@ -34928,16 +35488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457517</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330516</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>156306</xdr:rowOff>
+      <xdr:rowOff>146537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283307</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156307</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>19539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35047,14 +35607,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344330</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>461562</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>147901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146540</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283307</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
@@ -35161,16 +35721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457517</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340287</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>156306</xdr:rowOff>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283307</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156306</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>19541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35240,13 +35800,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>341443</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>112275</xdr:rowOff>
+      <xdr:rowOff>112276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>165953</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>185614</xdr:rowOff>
+      <xdr:rowOff>175847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35509,4738 +36069,323 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Shock lag1"/>
-      <sheetName val="Shock lag2"/>
-      <sheetName val="Shock lag4"/>
-      <sheetName val="Shock lag4 (10k)"/>
-      <sheetName val="Rsp lag1"/>
-      <sheetName val="Rsp lag2"/>
-      <sheetName val="Rsp lag4"/>
-      <sheetName val="Rsp lag4 (10k)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>-5.9827702989926082E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>-1.4045122492036596E-2</v>
-          </cell>
-          <cell r="J5">
-            <v>3.3570565995765328E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>-0.18848922223613124</v>
-          </cell>
-          <cell r="N5">
-            <v>-9.1707068177616452E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>2.7350996941572984E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-9.1315093204357212E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>-3.4125322161366697E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>2.365912329785793E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>-3.6703028147944392E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>3.4204097558981031E-2</v>
-          </cell>
-          <cell r="J6">
-            <v>0.10479282333574325</v>
-          </cell>
-          <cell r="M6">
-            <v>-7.7422613821543057E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>-1.9490989244481025E-3</v>
-          </cell>
-          <cell r="O6">
-            <v>7.1618209532558361E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>-0.11356882657649175</v>
-          </cell>
-          <cell r="D7">
-            <v>-3.1731018466452321E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>5.262279460981218E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>-6.4263098851344902E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>2.713088434232239E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>0.11806856331070596</v>
-          </cell>
-          <cell r="M7">
-            <v>-5.8725477651591584E-2</v>
-          </cell>
-          <cell r="N7">
-            <v>3.4717913066176262E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>0.12231677042495544</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>-0.14281459993028711</v>
-          </cell>
-          <cell r="D8">
-            <v>-4.0361074431556718E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>6.2563168705773803E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.10489428676160759</v>
-          </cell>
-          <cell r="I8">
-            <v>1.200213668511667E-2</v>
-          </cell>
-          <cell r="J8">
-            <v>0.13230937882575045</v>
-          </cell>
-          <cell r="M8">
-            <v>-1.5694131144924531E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>7.5827359511015116E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.17183643271905044</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>-0.10090563415647297</v>
-          </cell>
-          <cell r="D9">
-            <v>1.9696271409391022E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.14093498060231791</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.21777914581407021</v>
-          </cell>
-          <cell r="I9">
-            <v>-8.3667210711835388E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>5.0868260772724251E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>3.9026178256450147E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>0.16168759442295619</v>
-          </cell>
-          <cell r="O9">
-            <v>0.29543648260410516</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>-0.10069132309270211</v>
-          </cell>
-          <cell r="D10">
-            <v>5.0326273578442784E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>0.19650894172226657</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.23987620340033092</v>
-          </cell>
-          <cell r="I10">
-            <v>-7.1781697324188792E-2</v>
-          </cell>
-          <cell r="J10">
-            <v>7.8895077844569797E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>-4.6676056994971807E-2</v>
-          </cell>
-          <cell r="N10">
-            <v>7.3856306901404878E-2</v>
-          </cell>
-          <cell r="O10">
-            <v>0.20421091532661848</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-0.18947137766362121</v>
-          </cell>
-          <cell r="D11">
-            <v>5.2438801849593285E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>0.17649108310911629</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.33534191284415271</v>
-          </cell>
-          <cell r="I11">
-            <v>-0.13825530830670996</v>
-          </cell>
-          <cell r="J11">
-            <v>3.6852742193364804E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>-7.5603948721489414E-2</v>
-          </cell>
-          <cell r="N11">
-            <v>7.982947998565218E-2</v>
-          </cell>
-          <cell r="O11">
-            <v>0.24325539245036104</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>-0.22759373682973416</v>
-          </cell>
-          <cell r="D12">
-            <v>5.3797369360546687E-4</v>
-          </cell>
-          <cell r="E12">
-            <v>0.21068612703734263</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.38139816925727016</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.15555747331480607</v>
-          </cell>
-          <cell r="J12">
-            <v>4.2384729296648813E-2</v>
-          </cell>
-          <cell r="M12">
-            <v>-0.1715507038155617</v>
-          </cell>
-          <cell r="N12">
-            <v>-4.1508380756656903E-3</v>
-          </cell>
-          <cell r="O12">
-            <v>0.17563139300113051</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>-0.31905324015805903</v>
-          </cell>
-          <cell r="D13">
-            <v>-5.9923263359123805E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.17586002963190428</v>
-          </cell>
-          <cell r="H13">
-            <v>-0.38554277807966086</v>
-          </cell>
-          <cell r="I13">
-            <v>-0.12718244329891198</v>
-          </cell>
-          <cell r="J13">
-            <v>8.339748659020943E-2</v>
-          </cell>
-          <cell r="M13">
-            <v>-0.22539871853768662</v>
-          </cell>
-          <cell r="N13">
-            <v>-2.2828317410341858E-2</v>
-          </cell>
-          <cell r="O13">
-            <v>0.16014078350556443</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>-0.39018657277581348</v>
-          </cell>
-          <cell r="D14">
-            <v>-8.4374255341877452E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.16031510632279294</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.41729406203913411</v>
-          </cell>
-          <cell r="I14">
-            <v>-0.13250689604370666</v>
-          </cell>
-          <cell r="J14">
-            <v>9.3768112240434118E-2</v>
-          </cell>
-          <cell r="M14">
-            <v>-0.2155824739862775</v>
-          </cell>
-          <cell r="N14">
-            <v>-1.2693125458805701E-2</v>
-          </cell>
-          <cell r="O14">
-            <v>0.19778343520952213</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>-0.45062438286673567</v>
-          </cell>
-          <cell r="D15">
-            <v>-0.11179211219804269</v>
-          </cell>
-          <cell r="E15">
-            <v>0.16738937882157343</v>
-          </cell>
-          <cell r="H15">
-            <v>-0.3881749592457383</v>
-          </cell>
-          <cell r="I15">
-            <v>-8.6619724608654913E-2</v>
-          </cell>
-          <cell r="J15">
-            <v>0.16577452080378594</v>
-          </cell>
-          <cell r="M15">
-            <v>-0.22279886060324566</v>
-          </cell>
-          <cell r="N15">
-            <v>1.2649814331388032E-2</v>
-          </cell>
-          <cell r="O15">
-            <v>0.25269518156952542</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>-0.51494928120964079</v>
-          </cell>
-          <cell r="D16">
-            <v>-0.12700998058433605</v>
-          </cell>
-          <cell r="E16">
-            <v>0.17844078364254221</v>
-          </cell>
-          <cell r="H16">
-            <v>-0.39608977845224574</v>
-          </cell>
-          <cell r="I16">
-            <v>-6.3398518277531291E-2</v>
-          </cell>
-          <cell r="J16">
-            <v>0.19455597638252881</v>
-          </cell>
-          <cell r="M16">
-            <v>-0.19789501836678836</v>
-          </cell>
-          <cell r="N16">
-            <v>6.7719917332409521E-2</v>
-          </cell>
-          <cell r="O16">
-            <v>0.34816829636521779</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>-0.54306275882012112</v>
-          </cell>
-          <cell r="D17">
-            <v>-0.10554857475889953</v>
-          </cell>
-          <cell r="E17">
-            <v>0.22067364125162317</v>
-          </cell>
-          <cell r="H17">
-            <v>-0.39093538083346063</v>
-          </cell>
-          <cell r="I17">
-            <v>-3.2252309246552251E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>0.233830262741616</v>
-          </cell>
-          <cell r="M17">
-            <v>-0.15321318926419422</v>
-          </cell>
-          <cell r="N17">
-            <v>0.11765033006925962</v>
-          </cell>
-          <cell r="O17">
-            <v>0.44280413355975001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>-0.57570742967125488</v>
-          </cell>
-          <cell r="D18">
-            <v>-8.2774811351748578E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>0.26713539816747467</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.38863622536755493</v>
-          </cell>
-          <cell r="I18">
-            <v>-8.3597383234019929E-3</v>
-          </cell>
-          <cell r="J18">
-            <v>0.28340151741757957</v>
-          </cell>
-          <cell r="M18">
-            <v>-0.16751387563357661</v>
-          </cell>
-          <cell r="N18">
-            <v>0.13253899586768736</v>
-          </cell>
-          <cell r="O18">
-            <v>0.48835887112828091</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>-0.58934467931877133</v>
-          </cell>
-          <cell r="D19">
-            <v>-4.9015569760051891E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>0.32489786792190289</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.42812224464804327</v>
-          </cell>
-          <cell r="I19">
-            <v>-6.7885059274886122E-3</v>
-          </cell>
-          <cell r="J19">
-            <v>0.31522013873795257</v>
-          </cell>
-          <cell r="M19">
-            <v>-0.19992664143292899</v>
-          </cell>
-          <cell r="N19">
-            <v>0.11234778315850233</v>
-          </cell>
-          <cell r="O19">
-            <v>0.52597807453515988</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>-0.58548641565549442</v>
-          </cell>
-          <cell r="D20">
-            <v>-1.8095886517354658E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>0.38088858767059236</v>
-          </cell>
-          <cell r="H20">
-            <v>-0.47394613909857192</v>
-          </cell>
-          <cell r="I20">
-            <v>7.6563926734280179E-3</v>
-          </cell>
-          <cell r="J20">
-            <v>0.36383970112211039</v>
-          </cell>
-          <cell r="M20">
-            <v>-0.27459147487773272</v>
-          </cell>
-          <cell r="N20">
-            <v>7.5150367110984009E-2</v>
-          </cell>
-          <cell r="O20">
-            <v>0.52319564779769279</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>-0.6202449856312191</v>
-          </cell>
-          <cell r="D21">
-            <v>-4.1681458937983945E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>0.42818106003077372</v>
-          </cell>
-          <cell r="H21">
-            <v>-0.55524037924436653</v>
-          </cell>
-          <cell r="I21">
-            <v>-4.4827836937220544E-3</v>
-          </cell>
-          <cell r="J21">
-            <v>0.38209696000923954</v>
-          </cell>
-          <cell r="M21">
-            <v>-0.38350338602579381</v>
-          </cell>
-          <cell r="N21">
-            <v>2.2851096667199443E-2</v>
-          </cell>
-          <cell r="O21">
-            <v>0.49083864341644212</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>-0.68597547003299497</v>
-          </cell>
-          <cell r="D22">
-            <v>1.4485268618275551E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>0.48692908746857966</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.66404291719296982</v>
-          </cell>
-          <cell r="I22">
-            <v>-2.8714299117806989E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>0.39560790620514791</v>
-          </cell>
-          <cell r="M22">
-            <v>-0.46675984208294008</v>
-          </cell>
-          <cell r="N22">
-            <v>-3.2220714634352166E-2</v>
-          </cell>
-          <cell r="O22">
-            <v>0.51321771232060898</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>-0.78457821559277852</v>
-          </cell>
-          <cell r="D23">
-            <v>-4.7040372614251718E-3</v>
-          </cell>
-          <cell r="E23">
-            <v>0.5079259134122367</v>
-          </cell>
-          <cell r="H23">
-            <v>-0.7910975959877673</v>
-          </cell>
-          <cell r="I23">
-            <v>-6.4451847977274504E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>0.40379377353314705</v>
-          </cell>
-          <cell r="M23">
-            <v>-0.54779771447521997</v>
-          </cell>
-          <cell r="N23">
-            <v>-3.1715633558630441E-2</v>
-          </cell>
-          <cell r="O23">
-            <v>0.55545768209248592</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>-0.96487366662170571</v>
-          </cell>
-          <cell r="D24">
-            <v>-3.5451923522384798E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>0.54569888228595875</v>
-          </cell>
-          <cell r="H24">
-            <v>-0.95991585528676626</v>
-          </cell>
-          <cell r="I24">
-            <v>-9.4206091959067345E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>0.38466878214119865</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.611163754495609</v>
-          </cell>
-          <cell r="N24">
-            <v>-3.2015623847880238E-2</v>
-          </cell>
-          <cell r="O24">
-            <v>0.60598593948691049</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>-0.18468944832925782</v>
-          </cell>
-          <cell r="I30">
-            <v>-8.3416255718131729E-2</v>
-          </cell>
-          <cell r="J30">
-            <v>1.7124871390090557E-2</v>
-          </cell>
-          <cell r="M30">
-            <v>-0.17544688209761777</v>
-          </cell>
-          <cell r="N30">
-            <v>-6.9557878443797239E-2</v>
-          </cell>
-          <cell r="O30">
-            <v>3.5053558855213177E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>-0.16090438896133957</v>
-          </cell>
-          <cell r="D31">
-            <v>-8.6622485065230195E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>-1.4079096999526641E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>-0.12394638657992227</v>
-          </cell>
-          <cell r="I31">
-            <v>-3.7006681546243203E-2</v>
-          </cell>
-          <cell r="J31">
-            <v>4.9927404002305886E-2</v>
-          </cell>
-          <cell r="M31">
-            <v>-9.4226379785157632E-2</v>
-          </cell>
-          <cell r="N31">
-            <v>-1.0128086836733606E-2</v>
-          </cell>
-          <cell r="O31">
-            <v>7.4228757201440357E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>-7.4168595876685089E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>1.9949913150000099E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>0.11439804023160551</v>
-          </cell>
-          <cell r="H32">
-            <v>-0.10297797254721072</v>
-          </cell>
-          <cell r="I32">
-            <v>6.0982247289027912E-4</v>
-          </cell>
-          <cell r="J32">
-            <v>0.10533652153534923</v>
-          </cell>
-          <cell r="M32">
-            <v>-7.7731166756008579E-2</v>
-          </cell>
-          <cell r="N32">
-            <v>2.830454844667861E-2</v>
-          </cell>
-          <cell r="O32">
-            <v>0.13536900808808222</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>1.0289608517512518E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>0.12524801403882668</v>
-          </cell>
-          <cell r="E33">
-            <v>0.24320557272825361</v>
-          </cell>
-          <cell r="H33">
-            <v>-4.599164953126629E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>6.6864828563989315E-2</v>
-          </cell>
-          <cell r="J33">
-            <v>0.18151061123927104</v>
-          </cell>
-          <cell r="M33">
-            <v>-3.0593638491922974E-2</v>
-          </cell>
-          <cell r="N33">
-            <v>8.869140493392759E-2</v>
-          </cell>
-          <cell r="O33">
-            <v>0.20453164919256556</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>-0.12366790266380812</v>
-          </cell>
-          <cell r="D34">
-            <v>1.2312832905972612E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>0.14864735603217127</v>
-          </cell>
-          <cell r="H34">
-            <v>-4.2900665617092347E-2</v>
-          </cell>
-          <cell r="I34">
-            <v>8.2217537267299218E-2</v>
-          </cell>
-          <cell r="J34">
-            <v>0.21743214505851444</v>
-          </cell>
-          <cell r="M34">
-            <v>-2.2245574748066738E-2</v>
-          </cell>
-          <cell r="N34">
-            <v>0.10567604735751039</v>
-          </cell>
-          <cell r="O34">
-            <v>0.239851407553063</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>-9.3936360576933775E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>5.8555210645958602E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>0.221469846887271</v>
-          </cell>
-          <cell r="H35">
-            <v>-8.9885818558219685E-2</v>
-          </cell>
-          <cell r="I35">
-            <v>5.3008704045008341E-2</v>
-          </cell>
-          <cell r="J35">
-            <v>0.19783278229878842</v>
-          </cell>
-          <cell r="M35">
-            <v>-7.2676776446350067E-2</v>
-          </cell>
-          <cell r="N35">
-            <v>6.1743156776269278E-2</v>
-          </cell>
-          <cell r="O35">
-            <v>0.19838997979276546</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-9.2079660521506762E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>8.2735543218964591E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.27916886876751534</v>
-          </cell>
-          <cell r="H36">
-            <v>-0.14868525797650584</v>
-          </cell>
-          <cell r="I36">
-            <v>2.7763653761278605E-2</v>
-          </cell>
-          <cell r="J36">
-            <v>0.1978065608179928</v>
-          </cell>
-          <cell r="M36">
-            <v>-0.11551335575061104</v>
-          </cell>
-          <cell r="N36">
-            <v>4.6915334424836613E-2</v>
-          </cell>
-          <cell r="O36">
-            <v>0.21116616546882003</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-0.1289217266949888</v>
-          </cell>
-          <cell r="D37">
-            <v>6.4369976906763299E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>0.29580587259440816</v>
-          </cell>
-          <cell r="H37">
-            <v>-0.21193436830202872</v>
-          </cell>
-          <cell r="I37">
-            <v>-1.5911829851563197E-2</v>
-          </cell>
-          <cell r="J37">
-            <v>0.17229055592107673</v>
-          </cell>
-          <cell r="M37">
-            <v>-0.19264949744384663</v>
-          </cell>
-          <cell r="N37">
-            <v>-1.3412338102184042E-2</v>
-          </cell>
-          <cell r="O37">
-            <v>0.17111459925053724</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>-9.5840121225425595E-2</v>
-          </cell>
-          <cell r="D38">
-            <v>0.11651383983018937</v>
-          </cell>
-          <cell r="E38">
-            <v>0.3846998029509987</v>
-          </cell>
-          <cell r="H38">
-            <v>-0.26341016679463269</v>
-          </cell>
-          <cell r="I38">
-            <v>-5.5088707966117603E-2</v>
-          </cell>
-          <cell r="J38">
-            <v>0.13750929462383873</v>
-          </cell>
-          <cell r="M38">
-            <v>-0.24236721675651629</v>
-          </cell>
-          <cell r="N38">
-            <v>-5.2125696294298557E-2</v>
-          </cell>
-          <cell r="O38">
-            <v>0.13435366351212061</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>-0.14248250297722731</v>
-          </cell>
-          <cell r="D39">
-            <v>0.10053851134216979</v>
-          </cell>
-          <cell r="E39">
-            <v>0.39748246175815372</v>
-          </cell>
-          <cell r="H39">
-            <v>-0.3029249560506807</v>
-          </cell>
-          <cell r="I39">
-            <v>-7.5504362425385163E-2</v>
-          </cell>
-          <cell r="J39">
-            <v>0.13917635182588406</v>
-          </cell>
-          <cell r="M39">
-            <v>-0.27025763814431364</v>
-          </cell>
-          <cell r="N39">
-            <v>-5.840469229903561E-2</v>
-          </cell>
-          <cell r="O39">
-            <v>0.15090251575869235</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>-0.16094713159801549</v>
-          </cell>
-          <cell r="D40">
-            <v>9.624168407299602E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>0.4387413420104796</v>
-          </cell>
-          <cell r="H40">
-            <v>-0.30445976587352963</v>
-          </cell>
-          <cell r="I40">
-            <v>-5.6448512319622057E-2</v>
-          </cell>
-          <cell r="J40">
-            <v>0.164993669723177</v>
-          </cell>
-          <cell r="M40">
-            <v>-0.26696174773276493</v>
-          </cell>
-          <cell r="N40">
-            <v>-3.1895703842679403E-2</v>
-          </cell>
-          <cell r="O40">
-            <v>0.19021325646849241</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>-0.21376222608543777</v>
-          </cell>
-          <cell r="D41">
-            <v>6.0251965735891075E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.43431871740511008</v>
-          </cell>
-          <cell r="H41">
-            <v>-0.29295359533072951</v>
-          </cell>
-          <cell r="I41">
-            <v>-1.7296692980312334E-2</v>
-          </cell>
-          <cell r="J41">
-            <v>0.22060229486164126</v>
-          </cell>
-          <cell r="M41">
-            <v>-0.24890128438030742</v>
-          </cell>
-          <cell r="N41">
-            <v>1.0653827637460997E-2</v>
-          </cell>
-          <cell r="O41">
-            <v>0.27217750953803849</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>-0.28004214837192876</v>
-          </cell>
-          <cell r="D42">
-            <v>1.8180546936786696E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>0.42101492293517612</v>
-          </cell>
-          <cell r="H42">
-            <v>-0.24831170139843889</v>
-          </cell>
-          <cell r="I42">
-            <v>3.4325437210299833E-2</v>
-          </cell>
-          <cell r="J42">
-            <v>0.29773608298536625</v>
-          </cell>
-          <cell r="M42">
-            <v>-0.18657502137176973</v>
-          </cell>
-          <cell r="N42">
-            <v>6.6814055267181496E-2</v>
-          </cell>
-          <cell r="O42">
-            <v>0.35439334067533579</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>-0.31614891609123397</v>
-          </cell>
-          <cell r="D43">
-            <v>-1.4393093552806779E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>0.42147081690893784</v>
-          </cell>
-          <cell r="H43">
-            <v>-0.23439978595316824</v>
-          </cell>
-          <cell r="I43">
-            <v>6.551586224613716E-2</v>
-          </cell>
-          <cell r="J43">
-            <v>0.36367032721830672</v>
-          </cell>
-          <cell r="M43">
-            <v>-0.17890702730037167</v>
-          </cell>
-          <cell r="N43">
-            <v>9.9173617968116107E-2</v>
-          </cell>
-          <cell r="O43">
-            <v>0.42908529362856085</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>-0.36823831156311004</v>
-          </cell>
-          <cell r="D44">
-            <v>-2.638014254074289E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>0.44245808702575173</v>
-          </cell>
-          <cell r="H44">
-            <v>-0.25867206010789195</v>
-          </cell>
-          <cell r="I44">
-            <v>7.2464581254287452E-2</v>
-          </cell>
-          <cell r="J44">
-            <v>0.40520538820137847</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.19778555296792766</v>
-          </cell>
-          <cell r="N44">
-            <v>0.1035881090304603</v>
-          </cell>
-          <cell r="O44">
-            <v>0.49295462896533904</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>-0.392920907885697</v>
-          </cell>
-          <cell r="D45">
-            <v>-1.6463234872705276E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.51162036876630568</v>
-          </cell>
-          <cell r="H45">
-            <v>-0.3097925266612413</v>
-          </cell>
-          <cell r="I45">
-            <v>5.679788871681897E-2</v>
-          </cell>
-          <cell r="J45">
-            <v>0.44181237470255269</v>
-          </cell>
-          <cell r="M45">
-            <v>-0.23405562767355012</v>
-          </cell>
-          <cell r="N45">
-            <v>9.6506519409636005E-2</v>
-          </cell>
-          <cell r="O45">
-            <v>0.52273030155956146</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>-0.3861408051931392</v>
-          </cell>
-          <cell r="D46">
-            <v>2.0763259521018049E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>0.60093273732649899</v>
-          </cell>
-          <cell r="H46">
-            <v>-0.43379822021770698</v>
-          </cell>
-          <cell r="I46">
-            <v>1.4244923917866239E-2</v>
-          </cell>
-          <cell r="J46">
-            <v>0.40114561368279611</v>
-          </cell>
-          <cell r="M46">
-            <v>-0.33639004674759226</v>
-          </cell>
-          <cell r="N46">
-            <v>5.0275609050095274E-2</v>
-          </cell>
-          <cell r="O46">
-            <v>0.48627484758409151</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>-0.41870875426575888</v>
-          </cell>
-          <cell r="D47">
-            <v>2.6001838139959273E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.68581674487740096</v>
-          </cell>
-          <cell r="H47">
-            <v>-0.55408680720097836</v>
-          </cell>
-          <cell r="I47">
-            <v>-4.2772318653270851E-2</v>
-          </cell>
-          <cell r="J47">
-            <v>0.37468261178105822</v>
-          </cell>
-          <cell r="M47">
-            <v>-0.42464864452538276</v>
-          </cell>
-          <cell r="N47">
-            <v>-5.2177226665282752E-4</v>
-          </cell>
-          <cell r="O47">
-            <v>0.49064754087849527</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>-0.40281530815020727</v>
-          </cell>
-          <cell r="D48">
-            <v>5.0818468754757207E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>0.84121419301077371</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.67447370783960903</v>
-          </cell>
-          <cell r="I48">
-            <v>-8.526033230948063E-2</v>
-          </cell>
-          <cell r="J48">
-            <v>0.35861687727713182</v>
-          </cell>
-          <cell r="M48">
-            <v>-0.52694917716080991</v>
-          </cell>
-          <cell r="N48">
-            <v>-3.5868157963808669E-2</v>
-          </cell>
-          <cell r="O48">
-            <v>0.48743391841626793</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>-0.42117930504014323</v>
-          </cell>
-          <cell r="D49">
-            <v>6.1721631501510804E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.93462077944869204</v>
-          </cell>
-          <cell r="H49">
-            <v>-0.80312530541341098</v>
-          </cell>
-          <cell r="I49">
-            <v>-0.11316978074234069</v>
-          </cell>
-          <cell r="J49">
-            <v>0.35945404510878598</v>
-          </cell>
-          <cell r="M49">
-            <v>-0.64078601759808862</v>
-          </cell>
-          <cell r="N49">
-            <v>-4.5515078810456092E-2</v>
-          </cell>
-          <cell r="O49">
-            <v>0.53884381949230176</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="154529" cy="157992"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E09A2E-1782-B41F-DA8C-D31F4A942E82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3645370" y="207450"/>
+              <a:ext cx="154529" cy="157992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒕</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-PE" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E09A2E-1782-B41F-DA8C-D31F4A942E82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3645370" y="207450"/>
+              <a:ext cx="154529" cy="157992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜷_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒕</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-PE" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89370</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23704</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="154529" cy="157992"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D0A7A4-BCF7-4C77-A064-AD4D4FFA8D87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3099540" y="974853"/>
+              <a:ext cx="154529" cy="157992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-PE" sz="1000" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒕</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-PE" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D0A7A4-BCF7-4C77-A064-AD4D4FFA8D87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3099540" y="974853"/>
+              <a:ext cx="154529" cy="157992"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜷_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒕</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-PE" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Shock lag1"/>
-      <sheetName val="Shock lag2"/>
-      <sheetName val="Shock lag4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>-2.3150017434643455E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>2.2279361753272137E-2</v>
-          </cell>
-          <cell r="J5">
-            <v>7.0041902483509555E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>9.8233498241585365E-2</v>
-          </cell>
-          <cell r="N5">
-            <v>0.17898634415364773</v>
-          </cell>
-          <cell r="O5">
-            <v>0.26305114001671548</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-5.7841939172303292E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>-2.8104366328954747E-3</v>
-          </cell>
-          <cell r="E6">
-            <v>5.1450435269120423E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>5.0124416528118172E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>0.11756366416552944</v>
-          </cell>
-          <cell r="J6">
-            <v>0.1912319384269629</v>
-          </cell>
-          <cell r="M6">
-            <v>5.8620400677480665E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>0.13474706742033055</v>
-          </cell>
-          <cell r="O6">
-            <v>0.21063482805365885</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>-0.21754052632947346</v>
-          </cell>
-          <cell r="D7">
-            <v>-0.12608678065307433</v>
-          </cell>
-          <cell r="E7">
-            <v>-3.9343619951905107E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>8.0643652264283092E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>0.17797557707104</v>
-          </cell>
-          <cell r="J7">
-            <v>0.2836656797860394</v>
-          </cell>
-          <cell r="M7">
-            <v>9.6647292011370262E-2</v>
-          </cell>
-          <cell r="N7">
-            <v>0.19001836478700623</v>
-          </cell>
-          <cell r="O7">
-            <v>0.29498166456184383</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>-0.15413520049293422</v>
-          </cell>
-          <cell r="D8">
-            <v>-3.7369455919248729E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>7.3293283851195185E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>5.2219660496512041E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>0.18134703239611089</v>
-          </cell>
-          <cell r="J8">
-            <v>0.32208409742801686</v>
-          </cell>
-          <cell r="M8">
-            <v>1.6967607597759234E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>0.12768750526570233</v>
-          </cell>
-          <cell r="O8">
-            <v>0.23923515932811323</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>-8.3176866177191666E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>6.0275394236125726E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.20136714458327296</v>
-          </cell>
-          <cell r="H9">
-            <v>-8.1197515539991549E-2</v>
-          </cell>
-          <cell r="I9">
-            <v>8.1607039732864942E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>0.25209326215463423</v>
-          </cell>
-          <cell r="M9">
-            <v>-0.28357568592618565</v>
-          </cell>
-          <cell r="N9">
-            <v>-0.13256389402951108</v>
-          </cell>
-          <cell r="O9">
-            <v>1.8211295606216798E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>-0.12940948341706421</v>
-          </cell>
-          <cell r="D10">
-            <v>3.5987970992792231E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>0.19943339653126002</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.21122236188606128</v>
-          </cell>
-          <cell r="I10">
-            <v>-1.5608778928376216E-2</v>
-          </cell>
-          <cell r="J10">
-            <v>0.18493909268821473</v>
-          </cell>
-          <cell r="M10">
-            <v>-0.29295320628549992</v>
-          </cell>
-          <cell r="N10">
-            <v>-0.13706593906129791</v>
-          </cell>
-          <cell r="O10">
-            <v>1.6167363203163854E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-0.16066152911258527</v>
-          </cell>
-          <cell r="D11">
-            <v>3.1194339298977213E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.22673834797045941</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.28904746926269237</v>
-          </cell>
-          <cell r="I11">
-            <v>-6.504703499774106E-2</v>
-          </cell>
-          <cell r="J11">
-            <v>0.15520336697021753</v>
-          </cell>
-          <cell r="M11">
-            <v>-0.3755558562362763</v>
-          </cell>
-          <cell r="N11">
-            <v>-0.18711354789344861</v>
-          </cell>
-          <cell r="O11">
-            <v>-8.9694334177885179E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>-0.31350760324613747</v>
-          </cell>
-          <cell r="D12">
-            <v>-8.1732048433990123E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>0.14043586549202591</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.30030025542835892</v>
-          </cell>
-          <cell r="I12">
-            <v>-4.4524344537432779E-2</v>
-          </cell>
-          <cell r="J12">
-            <v>0.20122426596342016</v>
-          </cell>
-          <cell r="M12">
-            <v>-0.41691330452162706</v>
-          </cell>
-          <cell r="N12">
-            <v>-0.20175480254270617</v>
-          </cell>
-          <cell r="O12">
-            <v>-5.9936030367530157E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>-0.39149434000994687</v>
-          </cell>
-          <cell r="D13">
-            <v>-0.11525370486982431</v>
-          </cell>
-          <cell r="E13">
-            <v>0.12678901974794454</v>
-          </cell>
-          <cell r="H13">
-            <v>-0.31184507898419955</v>
-          </cell>
-          <cell r="I13">
-            <v>-2.6991751222499145E-2</v>
-          </cell>
-          <cell r="J13">
-            <v>0.24340743470232085</v>
-          </cell>
-          <cell r="M13">
-            <v>-0.1154978428400108</v>
-          </cell>
-          <cell r="N13">
-            <v>0.11203714010424726</v>
-          </cell>
-          <cell r="O13">
-            <v>0.37091374852414849</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>-0.41431194904456403</v>
-          </cell>
-          <cell r="D14">
-            <v>-0.1003347043409582</v>
-          </cell>
-          <cell r="E14">
-            <v>0.18515540759760477</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.19926324857712313</v>
-          </cell>
-          <cell r="I14">
-            <v>0.12588174617102263</v>
-          </cell>
-          <cell r="J14">
-            <v>0.43817090329319475</v>
-          </cell>
-          <cell r="M14">
-            <v>-0.17864644148429054</v>
-          </cell>
-          <cell r="N14">
-            <v>0.10907794362629666</v>
-          </cell>
-          <cell r="O14">
-            <v>0.37723247005180616</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>-0.52131938719871984</v>
-          </cell>
-          <cell r="D15">
-            <v>-0.16585913854859585</v>
-          </cell>
-          <cell r="E15">
-            <v>0.14721506930763256</v>
-          </cell>
-          <cell r="H15">
-            <v>-0.25659346469898409</v>
-          </cell>
-          <cell r="I15">
-            <v>0.10092044572299336</v>
-          </cell>
-          <cell r="J15">
-            <v>0.45230098871102209</v>
-          </cell>
-          <cell r="M15">
-            <v>-1.1719388078384137E-2</v>
-          </cell>
-          <cell r="N15">
-            <v>0.2767578058480305</v>
-          </cell>
-          <cell r="O15">
-            <v>0.63439830945012421</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>-0.43401588849602069</v>
-          </cell>
-          <cell r="D16">
-            <v>-5.1762506057907595E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>0.31590898697757563</v>
-          </cell>
-          <cell r="H16">
-            <v>-0.21514679770472162</v>
-          </cell>
-          <cell r="I16">
-            <v>0.17420841762938044</v>
-          </cell>
-          <cell r="J16">
-            <v>0.59778414240477429</v>
-          </cell>
-          <cell r="M16">
-            <v>-0.12733554468014241</v>
-          </cell>
-          <cell r="N16">
-            <v>0.20742219890317026</v>
-          </cell>
-          <cell r="O16">
-            <v>0.59093349572840914</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>-0.45387532422418131</v>
-          </cell>
-          <cell r="D17">
-            <v>-2.4540008329158786E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>0.38493175543704894</v>
-          </cell>
-          <cell r="H17">
-            <v>-0.26412419936229647</v>
-          </cell>
-          <cell r="I17">
-            <v>0.15441573311879739</v>
-          </cell>
-          <cell r="J17">
-            <v>0.62904189172406233</v>
-          </cell>
-          <cell r="M17">
-            <v>-0.31255506295087726</v>
-          </cell>
-          <cell r="N17">
-            <v>6.0651913057588894E-2</v>
-          </cell>
-          <cell r="O17">
-            <v>0.50352028524887682</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>-0.40789990784164565</v>
-          </cell>
-          <cell r="D18">
-            <v>6.8672786706817285E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>0.53341417851074469</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.3942796584071645</v>
-          </cell>
-          <cell r="I18">
-            <v>8.5751322323773332E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>0.61344107050507501</v>
-          </cell>
-          <cell r="M18">
-            <v>-0.55322490189325713</v>
-          </cell>
-          <cell r="N18">
-            <v>-7.2550747937642185E-2</v>
-          </cell>
-          <cell r="O18">
-            <v>0.38121719760973505</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>-0.41958578288399462</v>
-          </cell>
-          <cell r="D19">
-            <v>0.11371739105517401</v>
-          </cell>
-          <cell r="E19">
-            <v>0.66659755646642282</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.45281736564722475</v>
-          </cell>
-          <cell r="I19">
-            <v>8.5507617883176984E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>0.64894447660046628</v>
-          </cell>
-          <cell r="M19">
-            <v>-0.67673334379803496</v>
-          </cell>
-          <cell r="N19">
-            <v>-0.13978961141234111</v>
-          </cell>
-          <cell r="O19">
-            <v>0.41226477864701694</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>-0.49380358074760317</v>
-          </cell>
-          <cell r="D20">
-            <v>9.3348668620269915E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>0.68780600409552273</v>
-          </cell>
-          <cell r="H20">
-            <v>-0.54213012258472115</v>
-          </cell>
-          <cell r="I20">
-            <v>5.026063619527666E-2</v>
-          </cell>
-          <cell r="J20">
-            <v>0.70809841737779233</v>
-          </cell>
-          <cell r="M20">
-            <v>-0.95044506894252878</v>
-          </cell>
-          <cell r="N20">
-            <v>-0.27393197654548646</v>
-          </cell>
-          <cell r="O20">
-            <v>0.27139568434167255</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>-0.60562651102847986</v>
-          </cell>
-          <cell r="D21">
-            <v>3.3260343976016848E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.67940422131195066</v>
-          </cell>
-          <cell r="H21">
-            <v>-0.68893293529612976</v>
-          </cell>
-          <cell r="I21">
-            <v>2.5129228454311169E-2</v>
-          </cell>
-          <cell r="J21">
-            <v>0.7022884721971494</v>
-          </cell>
-          <cell r="M21">
-            <v>-0.74174212507129389</v>
-          </cell>
-          <cell r="N21">
-            <v>-0.10014674046096617</v>
-          </cell>
-          <cell r="O21">
-            <v>0.59898149218618069</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>-0.67243990213109794</v>
-          </cell>
-          <cell r="D22">
-            <v>3.1007242900168031E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>0.77032018565258276</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.65597095831523888</v>
-          </cell>
-          <cell r="I22">
-            <v>7.8804747164165814E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>0.89855657557586999</v>
-          </cell>
-          <cell r="M22">
-            <v>-0.87109207687657375</v>
-          </cell>
-          <cell r="N22">
-            <v>-6.6835813847478193E-2</v>
-          </cell>
-          <cell r="O22">
-            <v>0.66994718504799633</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>-0.91287820908380823</v>
-          </cell>
-          <cell r="D23">
-            <v>-5.2792142746937762E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.68400309085055855</v>
-          </cell>
-          <cell r="H23">
-            <v>-0.85701337700019309</v>
-          </cell>
-          <cell r="I23">
-            <v>9.3667677394180561E-3</v>
-          </cell>
-          <cell r="J23">
-            <v>0.84629075739090709</v>
-          </cell>
-          <cell r="M23">
-            <v>-0.6897914957281619</v>
-          </cell>
-          <cell r="N23">
-            <v>9.7433209894313019E-2</v>
-          </cell>
-          <cell r="O23">
-            <v>1.0680754687598959</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>-0.95191437374591392</v>
-          </cell>
-          <cell r="D24">
-            <v>-2.9406338887448032E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>0.87624557580602169</v>
-          </cell>
-          <cell r="H24">
-            <v>-0.82291372176307831</v>
-          </cell>
-          <cell r="I24">
-            <v>5.1459887586453826E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>1.075813380754902</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.83294875795296308</v>
-          </cell>
-          <cell r="N24">
-            <v>0.12402650703688761</v>
-          </cell>
-          <cell r="O24">
-            <v>1.1638122530830688</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>0.13469376841767439</v>
-          </cell>
-          <cell r="I30">
-            <v>0.20499921709122404</v>
-          </cell>
-          <cell r="J30">
-            <v>0.28032635506983983</v>
-          </cell>
-          <cell r="M30">
-            <v>9.4352558824899013E-2</v>
-          </cell>
-          <cell r="N30">
-            <v>0.1772530383099335</v>
-          </cell>
-          <cell r="O30">
-            <v>0.26124835908701305</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>-7.3051665243838854E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>7.4669936680590073E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>8.779156862842713E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>5.1352163530164599E-2</v>
-          </cell>
-          <cell r="I31">
-            <v>0.12271612052079123</v>
-          </cell>
-          <cell r="J31">
-            <v>0.19616225188444728</v>
-          </cell>
-          <cell r="M31">
-            <v>5.0372814868742184E-2</v>
-          </cell>
-          <cell r="N31">
-            <v>0.12771801316946335</v>
-          </cell>
-          <cell r="O31">
-            <v>0.20575684755754536</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>-5.5880786335370997E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>5.5411206830987783E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>0.17210162556957437</v>
-          </cell>
-          <cell r="H32">
-            <v>0.11939723068825384</v>
-          </cell>
-          <cell r="I32">
-            <v>0.21085957430220451</v>
-          </cell>
-          <cell r="J32">
-            <v>0.30846864186407169</v>
-          </cell>
-          <cell r="M32">
-            <v>9.0594345020831468E-2</v>
-          </cell>
-          <cell r="N32">
-            <v>0.19278371853576792</v>
-          </cell>
-          <cell r="O32">
-            <v>0.29618375654347678</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>-2.2650529632448402E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>0.1166014156705889</v>
-          </cell>
-          <cell r="E33">
-            <v>0.26736845410048082</v>
-          </cell>
-          <cell r="H33">
-            <v>9.2291647690055878E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>0.20045729281823826</v>
-          </cell>
-          <cell r="J33">
-            <v>0.32131268341927949</v>
-          </cell>
-          <cell r="M33">
-            <v>7.2828711402301655E-2</v>
-          </cell>
-          <cell r="N33">
-            <v>0.18826841286670473</v>
-          </cell>
-          <cell r="O33">
-            <v>0.31411470422426885</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>-5.3624867844190884E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>0.11509669977547531</v>
-          </cell>
-          <cell r="E34">
-            <v>0.29926387309381286</v>
-          </cell>
-          <cell r="H34">
-            <v>-0.16774971031606611</v>
-          </cell>
-          <cell r="I34">
-            <v>-2.5624841500026405E-2</v>
-          </cell>
-          <cell r="J34">
-            <v>0.12068206502518551</v>
-          </cell>
-          <cell r="M34">
-            <v>-0.22446662702053924</v>
-          </cell>
-          <cell r="N34">
-            <v>-7.0210393992329062E-2</v>
-          </cell>
-          <cell r="O34">
-            <v>8.1335485932699E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>-9.5175935252178004E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>0.10299955626449789</v>
-          </cell>
-          <cell r="E35">
-            <v>0.31585291477217015</v>
-          </cell>
-          <cell r="H35">
-            <v>-0.26049036042804441</v>
-          </cell>
-          <cell r="I35">
-            <v>-0.10754222881731837</v>
-          </cell>
-          <cell r="J35">
-            <v>6.1639982128809501E-2</v>
-          </cell>
-          <cell r="M35">
-            <v>-0.30768636833153917</v>
-          </cell>
-          <cell r="N35">
-            <v>-0.14906104230502989</v>
-          </cell>
-          <cell r="O35">
-            <v>1.3392233685414728E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-8.2661650978436668E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>0.13634890779180731</v>
-          </cell>
-          <cell r="E36">
-            <v>0.3952816984758194</v>
-          </cell>
-          <cell r="H36">
-            <v>-0.38103519496928684</v>
-          </cell>
-          <cell r="I36">
-            <v>-0.18555685249816431</v>
-          </cell>
-          <cell r="J36">
-            <v>7.5402251709149009E-4</v>
-          </cell>
-          <cell r="M36">
-            <v>-0.41844230213188521</v>
-          </cell>
-          <cell r="N36">
-            <v>-0.22115061800350089</v>
-          </cell>
-          <cell r="O36">
-            <v>-3.7796527550139333E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-0.162884497570186</v>
-          </cell>
-          <cell r="D37">
-            <v>9.3837422669819565E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>0.37529960042311261</v>
-          </cell>
-          <cell r="H37">
-            <v>-0.42238291590413679</v>
-          </cell>
-          <cell r="I37">
-            <v>-0.20032032151291077</v>
-          </cell>
-          <cell r="J37">
-            <v>-4.0017405675391721E-3</v>
-          </cell>
-          <cell r="M37">
-            <v>-0.42612426296878925</v>
-          </cell>
-          <cell r="N37">
-            <v>-0.20566206451708111</v>
-          </cell>
-          <cell r="O37">
-            <v>-3.9197092017556421E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>-0.27875442986753018</v>
-          </cell>
-          <cell r="D38">
-            <v>3.7734573142479263E-3</v>
-          </cell>
-          <cell r="E38">
-            <v>0.31170800653504338</v>
-          </cell>
-          <cell r="H38">
-            <v>-0.19759307749462018</v>
-          </cell>
-          <cell r="I38">
-            <v>3.4273550831623187E-2</v>
-          </cell>
-          <cell r="J38">
-            <v>0.26331491181891131</v>
-          </cell>
-          <cell r="M38">
-            <v>-0.19891568863480474</v>
-          </cell>
-          <cell r="N38">
-            <v>3.4864724851628004E-2</v>
-          </cell>
-          <cell r="O38">
-            <v>0.27375258404791314</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>-0.30876160070949343</v>
-          </cell>
-          <cell r="D39">
-            <v>2.7103808039491993E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>0.37617407989273366</v>
-          </cell>
-          <cell r="H39">
-            <v>-0.22171351759168545</v>
-          </cell>
-          <cell r="I39">
-            <v>5.0892969112843661E-2</v>
-          </cell>
-          <cell r="J39">
-            <v>0.30785201166748377</v>
-          </cell>
-          <cell r="M39">
-            <v>-0.22793044224048573</v>
-          </cell>
-          <cell r="N39">
-            <v>4.8125026515951422E-2</v>
-          </cell>
-          <cell r="O39">
-            <v>0.3172908151036084</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>-0.44367175115299728</v>
-          </cell>
-          <cell r="D40">
-            <v>-5.7793660660052634E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>0.33360449734747344</v>
-          </cell>
-          <cell r="H40">
-            <v>-6.1424572119332742E-2</v>
-          </cell>
-          <cell r="I40">
-            <v>0.22693692861435141</v>
-          </cell>
-          <cell r="J40">
-            <v>0.55227634022962668</v>
-          </cell>
-          <cell r="M40">
-            <v>-6.4324703601338518E-2</v>
-          </cell>
-          <cell r="N40">
-            <v>0.22563701700463357</v>
-          </cell>
-          <cell r="O40">
-            <v>0.56132539433743345</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>-0.51261119417618251</v>
-          </cell>
-          <cell r="D41">
-            <v>-7.9426981884013093E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.35821058876107725</v>
-          </cell>
-          <cell r="H41">
-            <v>-5.6821640631706589E-2</v>
-          </cell>
-          <cell r="I41">
-            <v>0.26371873328207152</v>
-          </cell>
-          <cell r="J41">
-            <v>0.62873988404949388</v>
-          </cell>
-          <cell r="M41">
-            <v>-6.069669960290984E-2</v>
-          </cell>
-          <cell r="N41">
-            <v>0.26247786081352165</v>
-          </cell>
-          <cell r="O41">
-            <v>0.64359701880488673</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>-0.52466817191362025</v>
-          </cell>
-          <cell r="D42">
-            <v>-4.8769028854130113E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>0.45203165706557835</v>
-          </cell>
-          <cell r="H42">
-            <v>-0.1305463440465755</v>
-          </cell>
-          <cell r="I42">
-            <v>0.21925378990539485</v>
-          </cell>
-          <cell r="J42">
-            <v>0.62357475750613167</v>
-          </cell>
-          <cell r="M42">
-            <v>-0.1831301469441598</v>
-          </cell>
-          <cell r="N42">
-            <v>0.17375209486783952</v>
-          </cell>
-          <cell r="O42">
-            <v>0.59043395209166727</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>-0.59454450483905263</v>
-          </cell>
-          <cell r="D43">
-            <v>-6.8541897461181056E-2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.45546787520812038</v>
-          </cell>
-          <cell r="H43">
-            <v>-0.34483019331781528</v>
-          </cell>
-          <cell r="I43">
-            <v>6.6910730907043761E-2</v>
-          </cell>
-          <cell r="J43">
-            <v>0.51388960217609214</v>
-          </cell>
-          <cell r="M43">
-            <v>-0.37379101514755181</v>
-          </cell>
-          <cell r="N43">
-            <v>5.5525034149166597E-2</v>
-          </cell>
-          <cell r="O43">
-            <v>0.51324590760915756</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>-0.57511700400523624</v>
-          </cell>
-          <cell r="D44">
-            <v>1.2548634316457434E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>0.57020482727373534</v>
-          </cell>
-          <cell r="H44">
-            <v>-0.49488734494114073</v>
-          </cell>
-          <cell r="I44">
-            <v>-1.4572008869543226E-2</v>
-          </cell>
-          <cell r="J44">
-            <v>0.50163500679539419</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.56251894635282307</v>
-          </cell>
-          <cell r="N44">
-            <v>-6.0213488720745847E-2</v>
-          </cell>
-          <cell r="O44">
-            <v>0.46931165247896273</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>-0.59665714986241714</v>
-          </cell>
-          <cell r="D45">
-            <v>2.7837039471445068E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.68352470122225273</v>
-          </cell>
-          <cell r="H45">
-            <v>-0.81856971161196568</v>
-          </cell>
-          <cell r="I45">
-            <v>-0.17647278333191024</v>
-          </cell>
-          <cell r="J45">
-            <v>0.351766553308408</v>
-          </cell>
-          <cell r="M45">
-            <v>-0.82314080230710529</v>
-          </cell>
-          <cell r="N45">
-            <v>-0.18487790616020791</v>
-          </cell>
-          <cell r="O45">
-            <v>0.34685344015188646</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>-0.72998009797634622</v>
-          </cell>
-          <cell r="D46">
-            <v>-4.0799528377543758E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>0.71639055440119415</v>
-          </cell>
-          <cell r="H46">
-            <v>-0.73045256481778797</v>
-          </cell>
-          <cell r="I46">
-            <v>-0.10041239653585785</v>
-          </cell>
-          <cell r="J46">
-            <v>0.54290615943595155</v>
-          </cell>
-          <cell r="M46">
-            <v>-0.7511313136444463</v>
-          </cell>
-          <cell r="N46">
-            <v>-0.12731416808605278</v>
-          </cell>
-          <cell r="O46">
-            <v>0.54540542759048338</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>-0.75695838939456483</v>
-          </cell>
-          <cell r="D47">
-            <v>1.841340849174981E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.8493947353853597</v>
-          </cell>
-          <cell r="H47">
-            <v>-0.83389011156254078</v>
-          </cell>
-          <cell r="I47">
-            <v>-9.3206978223408316E-2</v>
-          </cell>
-          <cell r="J47">
-            <v>0.60220347363604187</v>
-          </cell>
-          <cell r="M47">
-            <v>-0.85707368616589286</v>
-          </cell>
-          <cell r="N47">
-            <v>-9.3720849574955897E-2</v>
-          </cell>
-          <cell r="O47">
-            <v>0.61955305052345722</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>-0.91487527282000702</v>
-          </cell>
-          <cell r="D48">
-            <v>-2.1459382573828858E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>0.89946805143680009</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.73644877029514799</v>
-          </cell>
-          <cell r="I48">
-            <v>2.3646899129606321E-2</v>
-          </cell>
-          <cell r="J48">
-            <v>0.88285760109634792</v>
-          </cell>
-          <cell r="M48">
-            <v>-0.80059862546710758</v>
-          </cell>
-          <cell r="N48">
-            <v>2.6652819868456796E-4</v>
-          </cell>
-          <cell r="O48">
-            <v>0.91400229711501846</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>-1.0495438308446179</v>
-          </cell>
-          <cell r="D49">
-            <v>-1.0193871520510728E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.98106815017854587</v>
-          </cell>
-          <cell r="H49">
-            <v>-0.77731056084874739</v>
-          </cell>
-          <cell r="I49">
-            <v>0.10092528617313193</v>
-          </cell>
-          <cell r="J49">
-            <v>1.0673501103996812</v>
-          </cell>
-          <cell r="M49">
-            <v>-0.76995456683356367</v>
-          </cell>
-          <cell r="N49">
-            <v>0.13021054370783505</v>
-          </cell>
-          <cell r="O49">
-            <v>1.1175002769559024</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Shock lag1"/>
-      <sheetName val="Shock lag2"/>
-      <sheetName val="Shock lag4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>-3.7843432155897375E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>8.338114707434216E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>5.2327718048836673E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>-8.9186533882874702E-2</v>
-          </cell>
-          <cell r="N5">
-            <v>-9.7790398780813383E-3</v>
-          </cell>
-          <cell r="O5">
-            <v>6.7660185162646214E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-1.7524090706540922E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>3.408642851040776E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>8.7103453034763897E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>-0.16508855453199225</v>
-          </cell>
-          <cell r="I6">
-            <v>-9.6121666873602185E-2</v>
-          </cell>
-          <cell r="J6">
-            <v>-2.8531190366363861E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>-7.3426554479717757E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>1.3878898869572101E-4</v>
-          </cell>
-          <cell r="O6">
-            <v>7.4301926177946676E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>8.5507746930585771E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>0.16572991117757921</v>
-          </cell>
-          <cell r="E7">
-            <v>0.25414850265414524</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.18772910600588702</v>
-          </cell>
-          <cell r="I7">
-            <v>-8.9326736782952165E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>7.2687765304992619E-3</v>
-          </cell>
-          <cell r="M7">
-            <v>-0.11631889460394353</v>
-          </cell>
-          <cell r="N7">
-            <v>-2.2911934927367081E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>6.9658484039156643E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.1593212765491035</v>
-          </cell>
-          <cell r="D8">
-            <v>0.25805569089173946</v>
-          </cell>
-          <cell r="E8">
-            <v>0.37069976303273589</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.26968647811967983</v>
-          </cell>
-          <cell r="I8">
-            <v>-0.13381093796554727</v>
-          </cell>
-          <cell r="J8">
-            <v>-9.1756300636273366E-3</v>
-          </cell>
-          <cell r="M8">
-            <v>-8.0874851601072995E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>2.2668259392154978E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.12873018228074051</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>8.1465491722297889E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>0.20333763602485805</v>
-          </cell>
-          <cell r="E9">
-            <v>0.3490947768025523</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.30284013115339037</v>
-          </cell>
-          <cell r="I9">
-            <v>-0.13788158072059836</v>
-          </cell>
-          <cell r="J9">
-            <v>1.2355755717000112E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>-0.38337466541483722</v>
-          </cell>
-          <cell r="N9">
-            <v>-0.24612734058265801</v>
-          </cell>
-          <cell r="O9">
-            <v>-0.11052597290743632</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>-5.120358290543052E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>0.10189004999164519</v>
-          </cell>
-          <cell r="E10">
-            <v>0.27019414862467739</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.34223964879387753</v>
-          </cell>
-          <cell r="I10">
-            <v>-0.14185335699553164</v>
-          </cell>
-          <cell r="J10">
-            <v>3.8739183326333977E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>-0.28467128695792066</v>
-          </cell>
-          <cell r="N10">
-            <v>-0.13520133948529642</v>
-          </cell>
-          <cell r="O10">
-            <v>1.1659032967721823E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-0.24901230033817298</v>
-          </cell>
-          <cell r="D11">
-            <v>-7.1077765542261417E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.12383811200415823</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.35432163438473807</v>
-          </cell>
-          <cell r="I11">
-            <v>-0.12294443657200785</v>
-          </cell>
-          <cell r="J11">
-            <v>9.0664990415868008E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>-0.38392397357258645</v>
-          </cell>
-          <cell r="N11">
-            <v>-0.19911212310374043</v>
-          </cell>
-          <cell r="O11">
-            <v>-2.9406546448348708E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>-0.52665503437482974</v>
-          </cell>
-          <cell r="D12">
-            <v>-0.30293376510161374</v>
-          </cell>
-          <cell r="E12">
-            <v>-7.8999107874319005E-2</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.38406254916344745</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.11471868707306015</v>
-          </cell>
-          <cell r="J12">
-            <v>0.12963011048713463</v>
-          </cell>
-          <cell r="M12">
-            <v>-0.40579989460130539</v>
-          </cell>
-          <cell r="N12">
-            <v>-0.19795930799844219</v>
-          </cell>
-          <cell r="O12">
-            <v>4.8550093027119818E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>-0.5236017476777538</v>
-          </cell>
-          <cell r="D13">
-            <v>-0.25961615812872141</v>
-          </cell>
-          <cell r="E13">
-            <v>-9.0847662940028179E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>-0.38083471669221669</v>
-          </cell>
-          <cell r="I13">
-            <v>-8.9387484658218885E-2</v>
-          </cell>
-          <cell r="J13">
-            <v>0.18024768673809571</v>
-          </cell>
-          <cell r="M13">
-            <v>3.5135303805195972E-2</v>
-          </cell>
-          <cell r="N13">
-            <v>0.26941923869580769</v>
-          </cell>
-          <cell r="O13">
-            <v>0.50775710875024127</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>-0.52227828379893793</v>
-          </cell>
-          <cell r="D14">
-            <v>-0.20815942188519843</v>
-          </cell>
-          <cell r="E14">
-            <v>8.4995582179919843E-2</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.28002619440785353</v>
-          </cell>
-          <cell r="I14">
-            <v>4.8601265490673798E-2</v>
-          </cell>
-          <cell r="J14">
-            <v>0.37387764038894411</v>
-          </cell>
-          <cell r="M14">
-            <v>-0.15099061585593759</v>
-          </cell>
-          <cell r="N14">
-            <v>0.11381235281535405</v>
-          </cell>
-          <cell r="O14">
-            <v>0.37820024734287594</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>-0.62318952316586762</v>
-          </cell>
-          <cell r="D15">
-            <v>-0.26057603923106154</v>
-          </cell>
-          <cell r="E15">
-            <v>5.5746678536721432E-2</v>
-          </cell>
-          <cell r="H15">
-            <v>-0.31683550986456066</v>
-          </cell>
-          <cell r="I15">
-            <v>3.8284963982424106E-2</v>
-          </cell>
-          <cell r="J15">
-            <v>0.39821236962407958</v>
-          </cell>
-          <cell r="M15">
-            <v>2.7042938472897324E-2</v>
-          </cell>
-          <cell r="N15">
-            <v>0.33062359922833567</v>
-          </cell>
-          <cell r="O15">
-            <v>0.65121373240816161</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>-0.39858250229360914</v>
-          </cell>
-          <cell r="D16">
-            <v>-4.1037095069705782E-4</v>
-          </cell>
-          <cell r="E16">
-            <v>0.35652465948655332</v>
-          </cell>
-          <cell r="H16">
-            <v>-0.28796046927054714</v>
-          </cell>
-          <cell r="I16">
-            <v>0.11626066731831278</v>
-          </cell>
-          <cell r="J16">
-            <v>0.52301008942419314</v>
-          </cell>
-          <cell r="M16">
-            <v>-0.10836364068033913</v>
-          </cell>
-          <cell r="N16">
-            <v>0.22233541190978307</v>
-          </cell>
-          <cell r="O16">
-            <v>0.6017379146215136</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>-0.37105380947151634</v>
-          </cell>
-          <cell r="D17">
-            <v>4.4728679242359654E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>0.48621056600461865</v>
-          </cell>
-          <cell r="H17">
-            <v>-0.3054678918661784</v>
-          </cell>
-          <cell r="I17">
-            <v>0.13780350998163474</v>
-          </cell>
-          <cell r="J17">
-            <v>0.59098882809180764</v>
-          </cell>
-          <cell r="M17">
-            <v>-0.4826160966441948</v>
-          </cell>
-          <cell r="N17">
-            <v>-6.7320898739833296E-2</v>
-          </cell>
-          <cell r="O17">
-            <v>0.33478041969299532</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>-0.3757690719565665</v>
-          </cell>
-          <cell r="D18">
-            <v>0.1006978725375603</v>
-          </cell>
-          <cell r="E18">
-            <v>0.63545324887999244</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.52198406864445712</v>
-          </cell>
-          <cell r="I18">
-            <v>-1.9971025379635632E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>0.49506727454734123</v>
-          </cell>
-          <cell r="M18">
-            <v>-0.52127778879217745</v>
-          </cell>
-          <cell r="N18">
-            <v>-3.7585723621141938E-2</v>
-          </cell>
-          <cell r="O18">
-            <v>0.42405347675175437</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>-0.32931859098250466</v>
-          </cell>
-          <cell r="D19">
-            <v>0.17035965165503214</v>
-          </cell>
-          <cell r="E19">
-            <v>0.76981115040741432</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.50510391608037875</v>
-          </cell>
-          <cell r="I19">
-            <v>6.7235995178797331E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>0.64951764587761762</v>
-          </cell>
-          <cell r="M19">
-            <v>-0.84253492719195922</v>
-          </cell>
-          <cell r="N19">
-            <v>-0.26864283153876156</v>
-          </cell>
-          <cell r="O19">
-            <v>0.23016405825479827</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>-0.47894950839111128</v>
-          </cell>
-          <cell r="D20">
-            <v>5.315339604811286E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>0.70271546790802053</v>
-          </cell>
-          <cell r="H20">
-            <v>-0.69319084278189225</v>
-          </cell>
-          <cell r="I20">
-            <v>-3.8580107880464995E-2</v>
-          </cell>
-          <cell r="J20">
-            <v>0.59247803709978597</v>
-          </cell>
-          <cell r="M20">
-            <v>-0.89738778720686763</v>
-          </cell>
-          <cell r="N20">
-            <v>-0.23647064197364487</v>
-          </cell>
-          <cell r="O20">
-            <v>0.29641827957387878</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>-0.55822960397183063</v>
-          </cell>
-          <cell r="D21">
-            <v>6.259794262959148E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.79224473374858273</v>
-          </cell>
-          <cell r="H21">
-            <v>-0.74351972369691821</v>
-          </cell>
-          <cell r="I21">
-            <v>-4.6840517160390222E-3</v>
-          </cell>
-          <cell r="J21">
-            <v>0.70430853170291241</v>
-          </cell>
-          <cell r="M21">
-            <v>-0.78970585202610677</v>
-          </cell>
-          <cell r="N21">
-            <v>-9.01125686790894E-2</v>
-          </cell>
-          <cell r="O21">
-            <v>0.55486028855666092</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>-0.64391079337545776</v>
-          </cell>
-          <cell r="D22">
-            <v>4.4112250236889972E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>0.82829220541978577</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.75967133737101555</v>
-          </cell>
-          <cell r="I22">
-            <v>4.56422241419112E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>0.81689419841828692</v>
-          </cell>
-          <cell r="M22">
-            <v>-0.84872584491041825</v>
-          </cell>
-          <cell r="N22">
-            <v>-9.6844801160046248E-3</v>
-          </cell>
-          <cell r="O22">
-            <v>0.74941205209523698</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>-0.76712437987566795</v>
-          </cell>
-          <cell r="D23">
-            <v>1.5238310028415532E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.87647617080014162</v>
-          </cell>
-          <cell r="H23">
-            <v>-0.91592785286427059</v>
-          </cell>
-          <cell r="I23">
-            <v>-1.412434574179988E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>0.84211165865638038</v>
-          </cell>
-          <cell r="M23">
-            <v>-0.77713331471768465</v>
-          </cell>
-          <cell r="N23">
-            <v>0.10409042379827543</v>
-          </cell>
-          <cell r="O23">
-            <v>0.95326701200535258</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>-0.81057521600332283</v>
-          </cell>
-          <cell r="D24">
-            <v>7.6017787114228602E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>1.0665268104027783</v>
-          </cell>
-          <cell r="H24">
-            <v>-0.94872662530328356</v>
-          </cell>
-          <cell r="I24">
-            <v>2.705417690406841E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>1.0246878497048606</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.81789154276431719</v>
-          </cell>
-          <cell r="N24">
-            <v>0.13093903140153196</v>
-          </cell>
-          <cell r="O24">
-            <v>1.1148552825105078</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>-6.8532945203407719E-2</v>
-          </cell>
-          <cell r="I30">
-            <v>3.8398778458839647E-3</v>
-          </cell>
-          <cell r="J30">
-            <v>7.3095269314231687E-2</v>
-          </cell>
-          <cell r="M30">
-            <v>-0.11179097062919566</v>
-          </cell>
-          <cell r="N30">
-            <v>-3.1542471207865283E-2</v>
-          </cell>
-          <cell r="O30">
-            <v>4.8873508392972859E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>-7.6946734114003129E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>4.7216664494761848E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>8.3900142070287273E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>-1.8487977754834649E-2</v>
-          </cell>
-          <cell r="I31">
-            <v>5.2651052398604695E-2</v>
-          </cell>
-          <cell r="J31">
-            <v>0.12074240278805407</v>
-          </cell>
-          <cell r="M31">
-            <v>-4.8043500918837675E-2</v>
-          </cell>
-          <cell r="N31">
-            <v>2.7861076139113511E-2</v>
-          </cell>
-          <cell r="O31">
-            <v>0.10468809264484494</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>-5.0620886478279531E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>5.6857379096525357E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>0.16558101170519984</v>
-          </cell>
-          <cell r="H32">
-            <v>-4.4142258647927438E-2</v>
-          </cell>
-          <cell r="I32">
-            <v>4.76129482339223E-2</v>
-          </cell>
-          <cell r="J32">
-            <v>0.14098862354057112</v>
-          </cell>
-          <cell r="M32">
-            <v>-5.712228618911476E-2</v>
-          </cell>
-          <cell r="N32">
-            <v>4.0091030830974726E-2</v>
-          </cell>
-          <cell r="O32">
-            <v>0.14051633745229522</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>-3.905618417929653E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>8.8515905303387488E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>0.22943233700938587</v>
-          </cell>
-          <cell r="H33">
-            <v>4.916720325771394E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>0.15691949737473138</v>
-          </cell>
-          <cell r="J33">
-            <v>0.26929377422693113</v>
-          </cell>
-          <cell r="M33">
-            <v>1.7903583386255504E-2</v>
-          </cell>
-          <cell r="N33">
-            <v>0.12708817242408504</v>
-          </cell>
-          <cell r="O33">
-            <v>0.24411977199354495</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>-7.6030696204320181E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>8.5443558565992422E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>0.25856592646341781</v>
-          </cell>
-          <cell r="H34">
-            <v>-0.39818256416418729</v>
-          </cell>
-          <cell r="I34">
-            <v>-0.26611005337566795</v>
-          </cell>
-          <cell r="J34">
-            <v>-0.1317376158620365</v>
-          </cell>
-          <cell r="M34">
-            <v>-0.48351000382690679</v>
-          </cell>
-          <cell r="N34">
-            <v>-0.33979151396819102</v>
-          </cell>
-          <cell r="O34">
-            <v>-0.20097899571672595</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>-0.10036410026835985</v>
-          </cell>
-          <cell r="D35">
-            <v>8.5846603645956018E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>0.29073838081161041</v>
-          </cell>
-          <cell r="H35">
-            <v>-0.39943209340070818</v>
-          </cell>
-          <cell r="I35">
-            <v>-0.24319375960848763</v>
-          </cell>
-          <cell r="J35">
-            <v>-9.796462826752142E-2</v>
-          </cell>
-          <cell r="M35">
-            <v>-0.38139955116586022</v>
-          </cell>
-          <cell r="N35">
-            <v>-0.21739177437209417</v>
-          </cell>
-          <cell r="O35">
-            <v>-7.4738807616235775E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-0.1357806560322356</v>
-          </cell>
-          <cell r="D36">
-            <v>8.8498742070535791E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.33939177139212756</v>
-          </cell>
-          <cell r="H36">
-            <v>-0.51605659746575994</v>
-          </cell>
-          <cell r="I36">
-            <v>-0.32606858509604986</v>
-          </cell>
-          <cell r="J36">
-            <v>-0.15999049033982138</v>
-          </cell>
-          <cell r="M36">
-            <v>-0.50272151054905345</v>
-          </cell>
-          <cell r="N36">
-            <v>-0.31037980059149828</v>
-          </cell>
-          <cell r="O36">
-            <v>-0.14019428912613446</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-0.1419813126887865</v>
-          </cell>
-          <cell r="D37">
-            <v>0.12494230364094444</v>
-          </cell>
-          <cell r="E37">
-            <v>0.39948777206341157</v>
-          </cell>
-          <cell r="H37">
-            <v>-0.48308677934813127</v>
-          </cell>
-          <cell r="I37">
-            <v>-0.26634211775299893</v>
-          </cell>
-          <cell r="J37">
-            <v>-6.9821470836807856E-2</v>
-          </cell>
-          <cell r="M37">
-            <v>-0.49572210629492519</v>
-          </cell>
-          <cell r="N37">
-            <v>-0.27904836962908708</v>
-          </cell>
-          <cell r="O37">
-            <v>-7.7259701790335311E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>-0.21444327913993688</v>
-          </cell>
-          <cell r="D38">
-            <v>7.9827331455770423E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>0.40836267870409815</v>
-          </cell>
-          <cell r="H38">
-            <v>-0.20893488509157734</v>
-          </cell>
-          <cell r="I38">
-            <v>3.4211051042830218E-2</v>
-          </cell>
-          <cell r="J38">
-            <v>0.26388910851380165</v>
-          </cell>
-          <cell r="M38">
-            <v>-0.13309863636862362</v>
-          </cell>
-          <cell r="N38">
-            <v>0.1020590428008161</v>
-          </cell>
-          <cell r="O38">
-            <v>0.33865141812600652</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>-0.2565031758993479</v>
-          </cell>
-          <cell r="D39">
-            <v>8.9424462270956545E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>0.44901768882276766</v>
-          </cell>
-          <cell r="H39">
-            <v>-0.26756135642690149</v>
-          </cell>
-          <cell r="I39">
-            <v>9.1232958614655673E-3</v>
-          </cell>
-          <cell r="J39">
-            <v>0.2528137074763176</v>
-          </cell>
-          <cell r="M39">
-            <v>-0.2468942751407551</v>
-          </cell>
-          <cell r="N39">
-            <v>2.3517744601987117E-2</v>
-          </cell>
-          <cell r="O39">
-            <v>0.28516067509599607</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>-0.3592459533675505</v>
-          </cell>
-          <cell r="D40">
-            <v>1.2159203717932452E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>0.4204134881332855</v>
-          </cell>
-          <cell r="H40">
-            <v>-4.1350058586635464E-2</v>
-          </cell>
-          <cell r="I40">
-            <v>0.24214770887569484</v>
-          </cell>
-          <cell r="J40">
-            <v>0.55102354789504759</v>
-          </cell>
-          <cell r="M40">
-            <v>-3.9590599517371566E-2</v>
-          </cell>
-          <cell r="N40">
-            <v>0.26560570165994041</v>
-          </cell>
-          <cell r="O40">
-            <v>0.58282966007650372</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>-0.49536225540912227</v>
-          </cell>
-          <cell r="D41">
-            <v>-7.0694562821899287E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.37923090219294059</v>
-          </cell>
-          <cell r="H41">
-            <v>-6.4015460341424371E-2</v>
-          </cell>
-          <cell r="I41">
-            <v>0.24847749151666909</v>
-          </cell>
-          <cell r="J41">
-            <v>0.60361332590772088</v>
-          </cell>
-          <cell r="M41">
-            <v>-5.6829545724338959E-2</v>
-          </cell>
-          <cell r="N41">
-            <v>0.27013278382253036</v>
-          </cell>
-          <cell r="O41">
-            <v>0.6454995187115562</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>-0.4824592672014858</v>
-          </cell>
-          <cell r="D42">
-            <v>-2.2438133582708391E-3</v>
-          </cell>
-          <cell r="E42">
-            <v>0.49463955106641888</v>
-          </cell>
-          <cell r="H42">
-            <v>-0.32390637909410591</v>
-          </cell>
-          <cell r="I42">
-            <v>7.3657426330563977E-2</v>
-          </cell>
-          <cell r="J42">
-            <v>0.44923712466290266</v>
-          </cell>
-          <cell r="M42">
-            <v>-0.36858519603637685</v>
-          </cell>
-          <cell r="N42">
-            <v>3.8391053683942078E-2</v>
-          </cell>
-          <cell r="O42">
-            <v>0.43949716033863789</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>-0.62808642854995311</v>
-          </cell>
-          <cell r="D43">
-            <v>-9.6239709403277515E-2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.45840996609325246</v>
-          </cell>
-          <cell r="H43">
-            <v>-0.42171544741035977</v>
-          </cell>
-          <cell r="I43">
-            <v>2.5209934035986595E-2</v>
-          </cell>
-          <cell r="J43">
-            <v>0.50183130117051733</v>
-          </cell>
-          <cell r="M43">
-            <v>-0.4611535383044415</v>
-          </cell>
-          <cell r="N43">
-            <v>7.0006812939697937E-3</v>
-          </cell>
-          <cell r="O43">
-            <v>0.48139605388114848</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>-0.58972399944484799</v>
-          </cell>
-          <cell r="D44">
-            <v>1.4292297824776099E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>0.59867333722353577</v>
-          </cell>
-          <cell r="H44">
-            <v>-0.72593732331493666</v>
-          </cell>
-          <cell r="I44">
-            <v>-0.18598032573359263</v>
-          </cell>
-          <cell r="J44">
-            <v>0.29688834937687292</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.78183301863978671</v>
-          </cell>
-          <cell r="N44">
-            <v>-0.21322159957498418</v>
-          </cell>
-          <cell r="O44">
-            <v>0.26930594870652536</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>-0.69384729569972103</v>
-          </cell>
-          <cell r="D45">
-            <v>-1.2026502011148551E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.65411949609514153</v>
-          </cell>
-          <cell r="H45">
-            <v>-0.77838445443588378</v>
-          </cell>
-          <cell r="I45">
-            <v>-0.1973455799307173</v>
-          </cell>
-          <cell r="J45">
-            <v>0.33499423293410102</v>
-          </cell>
-          <cell r="M45">
-            <v>-0.83868301533183043</v>
-          </cell>
-          <cell r="N45">
-            <v>-0.19646605806339984</v>
-          </cell>
-          <cell r="O45">
-            <v>0.34776075155405772</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>-0.82910020715197374</v>
-          </cell>
-          <cell r="D46">
-            <v>-7.6994174096917001E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>0.64222477367033504</v>
-          </cell>
-          <cell r="H46">
-            <v>-0.79325229254922736</v>
-          </cell>
-          <cell r="I46">
-            <v>-0.11549311819815522</v>
-          </cell>
-          <cell r="J46">
-            <v>0.4746981475473584</v>
-          </cell>
-          <cell r="M46">
-            <v>-0.82684830990844749</v>
-          </cell>
-          <cell r="N46">
-            <v>-0.13948257141652659</v>
-          </cell>
-          <cell r="O46">
-            <v>0.44765576364200121</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>-0.87304169959720057</v>
-          </cell>
-          <cell r="D47">
-            <v>-2.1741158771778638E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.74941210053919238</v>
-          </cell>
-          <cell r="H47">
-            <v>-0.81389249328596291</v>
-          </cell>
-          <cell r="I47">
-            <v>-4.118066522123405E-2</v>
-          </cell>
-          <cell r="J47">
-            <v>0.67392067872480654</v>
-          </cell>
-          <cell r="M47">
-            <v>-0.87972277065839721</v>
-          </cell>
-          <cell r="N47">
-            <v>-5.3517706933853409E-2</v>
-          </cell>
-          <cell r="O47">
-            <v>0.66228568073715421</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>-1.0236898767643297</v>
-          </cell>
-          <cell r="D48">
-            <v>-0.10678980917585712</v>
-          </cell>
-          <cell r="E48">
-            <v>0.79225567164118171</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.77231398716806976</v>
-          </cell>
-          <cell r="I48">
-            <v>2.6935752264673617E-2</v>
-          </cell>
-          <cell r="J48">
-            <v>0.84989700531794599</v>
-          </cell>
-          <cell r="M48">
-            <v>-0.85927315336981136</v>
-          </cell>
-          <cell r="N48">
-            <v>1.5645363631472991E-2</v>
-          </cell>
-          <cell r="O48">
-            <v>0.82972607759482953</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>-1.1983134678899434</v>
-          </cell>
-          <cell r="D49">
-            <v>-9.5130705735252397E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.83690656111502038</v>
-          </cell>
-          <cell r="H49">
-            <v>-0.73374722071335685</v>
-          </cell>
-          <cell r="I49">
-            <v>0.1665319422422521</v>
-          </cell>
-          <cell r="J49">
-            <v>1.1274986899215094</v>
-          </cell>
-          <cell r="M49">
-            <v>-0.79713396996388997</v>
-          </cell>
-          <cell r="N49">
-            <v>0.12652060933115805</v>
-          </cell>
-          <cell r="O49">
-            <v>1.0842099881339893</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Shock lag1"/>
-      <sheetName val="Shock lag2"/>
-      <sheetName val="Shock lag4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>-3.7499569309292616E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>6.2734808191579252E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>5.1621521676731119E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>1.5704108864462954E-2</v>
-          </cell>
-          <cell r="N5">
-            <v>9.828293273101249E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>0.17896379466019149</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-4.0014123879393446E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>6.2628414684901971E-3</v>
-          </cell>
-          <cell r="E6">
-            <v>5.4191054107917802E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>3.7534379616090116E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>9.7117289225729792E-2</v>
-          </cell>
-          <cell r="J6">
-            <v>0.1581055673987066</v>
-          </cell>
-          <cell r="M6">
-            <v>-6.6844750021595734E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>-2.9948774587427052E-3</v>
-          </cell>
-          <cell r="O6">
-            <v>5.7833480348153166E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>-8.1828523371712869E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>-7.8430889979476826E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>6.4824447306930655E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>-2.098278155111168E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>6.1437195292375513E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>0.14936470419724357</v>
-          </cell>
-          <cell r="M7">
-            <v>-1.2697994361338175E-2</v>
-          </cell>
-          <cell r="N7">
-            <v>6.621418091763015E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>0.15175185139669695</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>-1.8811458901382021E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>6.966648088743202E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>0.16106121150433572</v>
-          </cell>
-          <cell r="H8">
-            <v>-8.768849121230525E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>2.2997001139370747E-2</v>
-          </cell>
-          <cell r="J8">
-            <v>0.1393746503375009</v>
-          </cell>
-          <cell r="M8">
-            <v>-5.1233052496499634E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>3.7273604389674073E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.12706090295926092</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>-0.10384917753646519</v>
-          </cell>
-          <cell r="D9">
-            <v>1.086622765498256E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.12392888186789257</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.2196665449652154</v>
-          </cell>
-          <cell r="I9">
-            <v>-8.7414774390274355E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>4.9992882309713986E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>-0.20258552556431475</v>
-          </cell>
-          <cell r="N9">
-            <v>-8.019702522897873E-2</v>
-          </cell>
-          <cell r="O9">
-            <v>3.2972236776029062E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>-0.16267553116664704</v>
-          </cell>
-          <cell r="D10">
-            <v>-2.2224804931212941E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>0.11301934665621369</v>
-          </cell>
-          <cell r="H10">
-            <v>-0.2972675011646897</v>
-          </cell>
-          <cell r="I10">
-            <v>-0.13030521291388925</v>
-          </cell>
-          <cell r="J10">
-            <v>2.7100424012446687E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>-7.9723250960015646E-2</v>
-          </cell>
-          <cell r="N10">
-            <v>4.1953788803398305E-2</v>
-          </cell>
-          <cell r="O10">
-            <v>0.16779569362661889</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-0.18227103019075006</v>
-          </cell>
-          <cell r="D11">
-            <v>-1.5414747291069085E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.13970475002332627</v>
-          </cell>
-          <cell r="H11">
-            <v>-0.29626385382733023</v>
-          </cell>
-          <cell r="I11">
-            <v>-0.10647295002117446</v>
-          </cell>
-          <cell r="J11">
-            <v>6.7354115817633675E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>-0.18457111558234152</v>
-          </cell>
-          <cell r="N11">
-            <v>-3.5134149273763002E-2</v>
-          </cell>
-          <cell r="O11">
-            <v>0.11414641814284621</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>-0.27120548345359607</v>
-          </cell>
-          <cell r="D12">
-            <v>-7.1798047144354255E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>0.10481636143457906</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.34948487737144962</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.1273553983960371</v>
-          </cell>
-          <cell r="J12">
-            <v>7.3351395171305261E-2</v>
-          </cell>
-          <cell r="M12">
-            <v>-0.18458252259533575</v>
-          </cell>
-          <cell r="N12">
-            <v>-1.1771007528052626E-2</v>
-          </cell>
-          <cell r="O12">
-            <v>0.1542774170219576</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>-0.24202638054321468</v>
-          </cell>
-          <cell r="D13">
-            <v>-2.7207910463590342E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.16903598056202535</v>
-          </cell>
-          <cell r="H13">
-            <v>-0.30053907463702406</v>
-          </cell>
-          <cell r="I13">
-            <v>-6.4713749362305395E-2</v>
-          </cell>
-          <cell r="J13">
-            <v>0.15909006589852417</v>
-          </cell>
-          <cell r="M13">
-            <v>-9.3648050327313354E-3</v>
-          </cell>
-          <cell r="N13">
-            <v>0.17410819227054633</v>
-          </cell>
-          <cell r="O13">
-            <v>0.38495150359019159</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>-0.28783673133946142</v>
-          </cell>
-          <cell r="D14">
-            <v>-4.2475989282517709E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.175580113277229</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.21127344144118756</v>
-          </cell>
-          <cell r="I14">
-            <v>3.7212969260583068E-2</v>
-          </cell>
-          <cell r="J14">
-            <v>0.28147663116217547</v>
-          </cell>
-          <cell r="M14">
-            <v>-0.17321283585308833</v>
-          </cell>
-          <cell r="N14">
-            <v>4.8898374063441066E-2</v>
-          </cell>
-          <cell r="O14">
-            <v>0.27714713702819282</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>-0.39092581633654833</v>
-          </cell>
-          <cell r="D15">
-            <v>-0.11041153232717295</v>
-          </cell>
-          <cell r="E15">
-            <v>0.13268408807589638</v>
-          </cell>
-          <cell r="H15">
-            <v>-0.25146812030838617</v>
-          </cell>
-          <cell r="I15">
-            <v>2.101719430653648E-2</v>
-          </cell>
-          <cell r="J15">
-            <v>0.29014951047897553</v>
-          </cell>
-          <cell r="M15">
-            <v>-9.3246841731879235E-2</v>
-          </cell>
-          <cell r="N15">
-            <v>0.14403557475073653</v>
-          </cell>
-          <cell r="O15">
-            <v>0.41660333523388615</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>-0.32665995710270523</v>
-          </cell>
-          <cell r="D16">
-            <v>-2.8014399424757697E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>0.26018224109969135</v>
-          </cell>
-          <cell r="H16">
-            <v>-0.20645583237699089</v>
-          </cell>
-          <cell r="I16">
-            <v>8.8672728219470323E-2</v>
-          </cell>
-          <cell r="J16">
-            <v>0.39081804799438508</v>
-          </cell>
-          <cell r="M16">
-            <v>-0.13710171126314963</v>
-          </cell>
-          <cell r="N16">
-            <v>0.12426761112613309</v>
-          </cell>
-          <cell r="O16">
-            <v>0.427597892340561</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>-0.37652200841448635</v>
-          </cell>
-          <cell r="D17">
-            <v>-3.5220820860209417E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>0.27352683121740778</v>
-          </cell>
-          <cell r="H17">
-            <v>-0.25525037681654794</v>
-          </cell>
-          <cell r="I17">
-            <v>7.5271685735424587E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>0.41311811602263993</v>
-          </cell>
-          <cell r="M17">
-            <v>-0.36128248015473602</v>
-          </cell>
-          <cell r="N17">
-            <v>-3.2116458598591621E-2</v>
-          </cell>
-          <cell r="O17">
-            <v>0.29440001443602687</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>-0.38087800372514657</v>
-          </cell>
-          <cell r="D18">
-            <v>-3.1180878707060466E-3</v>
-          </cell>
-          <cell r="E18">
-            <v>0.33704980207286805</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.37368619876052922</v>
-          </cell>
-          <cell r="I18">
-            <v>3.3256055381151225E-3</v>
-          </cell>
-          <cell r="J18">
-            <v>0.3822240014763757</v>
-          </cell>
-          <cell r="M18">
-            <v>-0.29425234767812508</v>
-          </cell>
-          <cell r="N18">
-            <v>3.4738747903378761E-2</v>
-          </cell>
-          <cell r="O18">
-            <v>0.42348004012724061</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>-0.343429634000321</v>
-          </cell>
-          <cell r="D19">
-            <v>5.1077236959574029E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>0.45849253271343648</v>
-          </cell>
-          <cell r="H19">
-            <v>-0.36729196644465656</v>
-          </cell>
-          <cell r="I19">
-            <v>5.0025406105089223E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>0.47879495332435584</v>
-          </cell>
-          <cell r="M19">
-            <v>-0.47115341349052636</v>
-          </cell>
-          <cell r="N19">
-            <v>-6.1320105778591663E-2</v>
-          </cell>
-          <cell r="O19">
-            <v>0.35478042525817394</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>-0.47302290548939346</v>
-          </cell>
-          <cell r="D20">
-            <v>-1.0539741249289358E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>0.40911020659143094</v>
-          </cell>
-          <cell r="H20">
-            <v>-0.47045274802701537</v>
-          </cell>
-          <cell r="I20">
-            <v>2.7920445361605943E-3</v>
-          </cell>
-          <cell r="J20">
-            <v>0.44186049247508286</v>
-          </cell>
-          <cell r="M20">
-            <v>-0.56425894237463137</v>
-          </cell>
-          <cell r="N20">
-            <v>-8.5004943393564403E-2</v>
-          </cell>
-          <cell r="O20">
-            <v>0.37130368421064897</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>-0.49477276102636603</v>
-          </cell>
-          <cell r="D21">
-            <v>9.3647959799718471E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>0.47486841403818747</v>
-          </cell>
-          <cell r="H21">
-            <v>-0.55413608467349285</v>
-          </cell>
-          <cell r="I21">
-            <v>-7.5430052869165914E-3</v>
-          </cell>
-          <cell r="J21">
-            <v>0.45916250263309843</v>
-          </cell>
-          <cell r="M21">
-            <v>-0.43560304551147788</v>
-          </cell>
-          <cell r="N21">
-            <v>2.9359743012773935E-2</v>
-          </cell>
-          <cell r="O21">
-            <v>0.60117663385027464</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>-0.5636753111143511</v>
-          </cell>
-          <cell r="D22">
-            <v>1.2118466476883924E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>0.53164239797996815</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.56486171647646999</v>
-          </cell>
-          <cell r="I22">
-            <v>3.9917089092430413E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>0.60205161972155319</v>
-          </cell>
-          <cell r="M22">
-            <v>-0.58247697545627597</v>
-          </cell>
-          <cell r="N22">
-            <v>6.6998166580995262E-3</v>
-          </cell>
-          <cell r="O22">
-            <v>0.57639655654430055</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>-0.75375751401330815</v>
-          </cell>
-          <cell r="D23">
-            <v>-5.7614574300897177E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.45662031892575483</v>
-          </cell>
-          <cell r="H23">
-            <v>-0.76572016405303223</v>
-          </cell>
-          <cell r="I23">
-            <v>-3.1082993527846048E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>0.54441082383488681</v>
-          </cell>
-          <cell r="M23">
-            <v>-0.55497082061179159</v>
-          </cell>
-          <cell r="N23">
-            <v>6.9434835181670984E-2</v>
-          </cell>
-          <cell r="O23">
-            <v>0.78408656680058142</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>-0.79580165776984568</v>
-          </cell>
-          <cell r="D24">
-            <v>-1.7411327227314935E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>0.62649566123070544</v>
-          </cell>
-          <cell r="H24">
-            <v>-0.82288499933106518</v>
-          </cell>
-          <cell r="I24">
-            <v>-1.065075491081347E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>0.69462464670568491</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.61492406629913599</v>
-          </cell>
-          <cell r="N24">
-            <v>8.9683724580978674E-2</v>
-          </cell>
-          <cell r="O24">
-            <v>0.94428434072698542</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>2.3824127740821467E-2</v>
-          </cell>
-          <cell r="I30">
-            <v>9.8192823216972105E-2</v>
-          </cell>
-          <cell r="J30">
-            <v>0.1672089146432883</v>
-          </cell>
-          <cell r="M30">
-            <v>4.718020572608346E-2</v>
-          </cell>
-          <cell r="N30">
-            <v>0.13031699423519782</v>
-          </cell>
-          <cell r="O30">
-            <v>0.215249767356259</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>-9.7615466577867363E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>-2.8490457330464767E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>4.0655292074437112E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>-4.7139673363507231E-2</v>
-          </cell>
-          <cell r="I31">
-            <v>1.4406060018006362E-2</v>
-          </cell>
-          <cell r="J31">
-            <v>7.6506140071982948E-2</v>
-          </cell>
-          <cell r="M31">
-            <v>-6.8539445342533228E-2</v>
-          </cell>
-          <cell r="N31">
-            <v>-3.1179837612623582E-3</v>
-          </cell>
-          <cell r="O31">
-            <v>5.9578133299631832E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>-4.9279858878701871E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>4.6651785152387298E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>0.14444630303603007</v>
-          </cell>
-          <cell r="H32">
-            <v>-2.4611545010412468E-2</v>
-          </cell>
-          <cell r="I32">
-            <v>5.5827213431781639E-2</v>
-          </cell>
-          <cell r="J32">
-            <v>0.14120942442317125</v>
-          </cell>
-          <cell r="M32">
-            <v>-2.2183589068155611E-3</v>
-          </cell>
-          <cell r="N32">
-            <v>8.1156210825076416E-2</v>
-          </cell>
-          <cell r="O32">
-            <v>0.17265515265540346</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>3.1049771633640651E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>0.14568263626018574</v>
-          </cell>
-          <cell r="E33">
-            <v>0.26310175653194734</v>
-          </cell>
-          <cell r="H33">
-            <v>-4.6740275121155569E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>4.1921443362836923E-2</v>
-          </cell>
-          <cell r="J33">
-            <v>0.13850658889395873</v>
-          </cell>
-          <cell r="M33">
-            <v>-4.7658917810762168E-2</v>
-          </cell>
-          <cell r="N33">
-            <v>4.6317099918663319E-2</v>
-          </cell>
-          <cell r="O33">
-            <v>0.14813254195226411</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>-9.0336194158283881E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>4.8873441342452861E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>0.19844193714572822</v>
-          </cell>
-          <cell r="H34">
-            <v>-0.20534431398523262</v>
-          </cell>
-          <cell r="I34">
-            <v>-9.174082195554692E-2</v>
-          </cell>
-          <cell r="J34">
-            <v>1.6503376361797106E-2</v>
-          </cell>
-          <cell r="M34">
-            <v>-0.24046299030676582</v>
-          </cell>
-          <cell r="N34">
-            <v>-0.12099746245428283</v>
-          </cell>
-          <cell r="O34">
-            <v>-7.136678907484614E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>-0.13674072359729422</v>
-          </cell>
-          <cell r="D35">
-            <v>3.0458938413797383E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>0.20480007307829151</v>
-          </cell>
-          <cell r="H35">
-            <v>-0.13542816886354564</v>
-          </cell>
-          <cell r="I35">
-            <v>-9.7512131962373093E-3</v>
-          </cell>
-          <cell r="J35">
-            <v>0.11364949151255047</v>
-          </cell>
-          <cell r="M35">
-            <v>-0.13800787951127086</v>
-          </cell>
-          <cell r="N35">
-            <v>-9.3907344058082563E-3</v>
-          </cell>
-          <cell r="O35">
-            <v>0.11638886963118036</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-0.10029997407847452</v>
-          </cell>
-          <cell r="D36">
-            <v>8.4732554136260629E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.29534835009273347</v>
-          </cell>
-          <cell r="H36">
-            <v>-0.21244976921939768</v>
-          </cell>
-          <cell r="I36">
-            <v>-5.9525224591422343E-2</v>
-          </cell>
-          <cell r="J36">
-            <v>8.8972287780987369E-2</v>
-          </cell>
-          <cell r="M36">
-            <v>-0.19662704046324023</v>
-          </cell>
-          <cell r="N36">
-            <v>-4.4091552391472902E-2</v>
-          </cell>
-          <cell r="O36">
-            <v>0.10882197840360189</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-0.14026341722672725</v>
-          </cell>
-          <cell r="D37">
-            <v>7.2377370798824586E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>0.30542451004105159</v>
-          </cell>
-          <cell r="H37">
-            <v>-0.22026563970220892</v>
-          </cell>
-          <cell r="I37">
-            <v>-4.2223612106472186E-2</v>
-          </cell>
-          <cell r="J37">
-            <v>0.11918524259672686</v>
-          </cell>
-          <cell r="M37">
-            <v>-0.21656069947965956</v>
-          </cell>
-          <cell r="N37">
-            <v>-3.8072256383564818E-2</v>
-          </cell>
-          <cell r="O37">
-            <v>0.12970672494262392</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>-0.18629845015363083</v>
-          </cell>
-          <cell r="D38">
-            <v>4.7527546170650289E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>0.30800042564218555</v>
-          </cell>
-          <cell r="H38">
-            <v>-8.5386186971234262E-2</v>
-          </cell>
-          <cell r="I38">
-            <v>9.8430701155395761E-2</v>
-          </cell>
-          <cell r="J38">
-            <v>0.28662155599572481</v>
-          </cell>
-          <cell r="M38">
-            <v>-7.1686780499907038E-2</v>
-          </cell>
-          <cell r="N38">
-            <v>0.11275989382883235</v>
-          </cell>
-          <cell r="O38">
-            <v>0.31818627502468022</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>-0.18152631906799527</v>
-          </cell>
-          <cell r="D39">
-            <v>7.2291196221434095E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>0.35686810175641659</v>
-          </cell>
-          <cell r="H39">
-            <v>-0.18617218698690896</v>
-          </cell>
-          <cell r="I39">
-            <v>2.1420527303991639E-2</v>
-          </cell>
-          <cell r="J39">
-            <v>0.22633022722270685</v>
-          </cell>
-          <cell r="M39">
-            <v>-0.20614973923063226</v>
-          </cell>
-          <cell r="N39">
-            <v>1.2663561370458293E-2</v>
-          </cell>
-          <cell r="O39">
-            <v>0.227032072347497</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>-0.30130747764545884</v>
-          </cell>
-          <cell r="D40">
-            <v>-6.0736741826991746E-3</v>
-          </cell>
-          <cell r="E40">
-            <v>0.31117204490317807</v>
-          </cell>
-          <cell r="H40">
-            <v>-0.10462801998578014</v>
-          </cell>
-          <cell r="I40">
-            <v>0.11656212904823157</v>
-          </cell>
-          <cell r="J40">
-            <v>0.36650627397725943</v>
-          </cell>
-          <cell r="M40">
-            <v>-0.10113134371815585</v>
-          </cell>
-          <cell r="N40">
-            <v>0.12501818904189685</v>
-          </cell>
-          <cell r="O40">
-            <v>0.38866080379822754</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>-0.33554516234451542</v>
-          </cell>
-          <cell r="D41">
-            <v>-1.5951293435398528E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.32658373405321472</v>
-          </cell>
-          <cell r="H41">
-            <v>-0.10434148614680089</v>
-          </cell>
-          <cell r="I41">
-            <v>0.14458612547863561</v>
-          </cell>
-          <cell r="J41">
-            <v>0.41735284024855362</v>
-          </cell>
-          <cell r="M41">
-            <v>-0.11460713813237393</v>
-          </cell>
-          <cell r="N41">
-            <v>0.1414179778310915</v>
-          </cell>
-          <cell r="O41">
-            <v>0.45074345261972315</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>-0.33290470447298759</v>
-          </cell>
-          <cell r="D42">
-            <v>2.4014378515298095E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>0.40341999392942363</v>
-          </cell>
-          <cell r="H42">
-            <v>-0.25639931537835736</v>
-          </cell>
-          <cell r="I42">
-            <v>3.0804846128412833E-2</v>
-          </cell>
-          <cell r="J42">
-            <v>0.33508701824925879</v>
-          </cell>
-          <cell r="M42">
-            <v>-0.28820207285623867</v>
-          </cell>
-          <cell r="N42">
-            <v>1.2734355828713951E-2</v>
-          </cell>
-          <cell r="O42">
-            <v>0.34535399503039743</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>-0.42436054572076065</v>
-          </cell>
-          <cell r="D43">
-            <v>-2.9621183125134218E-2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.38957015470655099</v>
-          </cell>
-          <cell r="H43">
-            <v>-0.26181930539095</v>
-          </cell>
-          <cell r="I43">
-            <v>5.4402565820793038E-2</v>
-          </cell>
-          <cell r="J43">
-            <v>0.40400968476680932</v>
-          </cell>
-          <cell r="M43">
-            <v>-0.26362964664475852</v>
-          </cell>
-          <cell r="N43">
-            <v>5.5490509467053674E-2</v>
-          </cell>
-          <cell r="O43">
-            <v>0.44010123392881784</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>-0.39922977121545278</v>
-          </cell>
-          <cell r="D44">
-            <v>1.5715325542745181E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>0.50430823679141357</v>
-          </cell>
-          <cell r="H44">
-            <v>-0.39124844503639233</v>
-          </cell>
-          <cell r="I44">
-            <v>-1.8686988174522301E-2</v>
-          </cell>
-          <cell r="J44">
-            <v>0.33962982910573897</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.39716010782685385</v>
-          </cell>
-          <cell r="N44">
-            <v>-2.0424920289607996E-2</v>
-          </cell>
-          <cell r="O44">
-            <v>0.39229813632564403</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>-0.43933920439948237</v>
-          </cell>
-          <cell r="D45">
-            <v>1.5721346196823242E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.56195905657167977</v>
-          </cell>
-          <cell r="H45">
-            <v>-0.51632626305445239</v>
-          </cell>
-          <cell r="I45">
-            <v>-5.3947807114148053E-2</v>
-          </cell>
-          <cell r="J45">
-            <v>0.3443352036930199</v>
-          </cell>
-          <cell r="M45">
-            <v>-0.49799928964308698</v>
-          </cell>
-          <cell r="N45">
-            <v>-4.5877755043038024E-2</v>
-          </cell>
-          <cell r="O45">
-            <v>0.39686563972351507</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>-0.54030319186748477</v>
-          </cell>
-          <cell r="D46">
-            <v>-2.3748520836672411E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>0.57165304263981687</v>
-          </cell>
-          <cell r="H46">
-            <v>-0.44461304389378398</v>
-          </cell>
-          <cell r="I46">
-            <v>5.499073816667875E-3</v>
-          </cell>
-          <cell r="J46">
-            <v>0.47298515927167223</v>
-          </cell>
-          <cell r="M46">
-            <v>-0.42496661647993783</v>
-          </cell>
-          <cell r="N46">
-            <v>3.5248756997329753E-2</v>
-          </cell>
-          <cell r="O46">
-            <v>0.57980166113698495</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>-0.52930341421803662</v>
-          </cell>
-          <cell r="D47">
-            <v>3.690896011739566E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.72766818143420986</v>
-          </cell>
-          <cell r="H47">
-            <v>-0.580778576604567</v>
-          </cell>
-          <cell r="I47">
-            <v>-2.2160100021036681E-2</v>
-          </cell>
-          <cell r="J47">
-            <v>0.50297746379536779</v>
-          </cell>
-          <cell r="M47">
-            <v>-0.55038828804036122</v>
-          </cell>
-          <cell r="N47">
-            <v>4.3147587867525285E-4</v>
-          </cell>
-          <cell r="O47">
-            <v>0.56037839552390667</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>-0.62317285605568162</v>
-          </cell>
-          <cell r="D48">
-            <v>3.7476205693804531E-3</v>
-          </cell>
-          <cell r="E48">
-            <v>0.79320878346115198</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.56436407339075834</v>
-          </cell>
-          <cell r="I48">
-            <v>2.5585514812640122E-2</v>
-          </cell>
-          <cell r="J48">
-            <v>0.61443301817374874</v>
-          </cell>
-          <cell r="M48">
-            <v>-0.50395797219094041</v>
-          </cell>
-          <cell r="N48">
-            <v>6.2760409924289676E-2</v>
-          </cell>
-          <cell r="O48">
-            <v>0.75432368236529856</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>-0.67481971002571228</v>
-          </cell>
-          <cell r="D49">
-            <v>1.7571094077657792E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.95383486311864829</v>
-          </cell>
-          <cell r="H49">
-            <v>-0.58806701854869292</v>
-          </cell>
-          <cell r="I49">
-            <v>6.8347549585236755E-2</v>
-          </cell>
-          <cell r="J49">
-            <v>0.76654636265830711</v>
-          </cell>
-          <cell r="M49">
-            <v>-0.54460652124023601</v>
-          </cell>
-          <cell r="N49">
-            <v>0.10137290478919996</v>
-          </cell>
-          <cell r="O49">
-            <v>0.91520368705552457</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42179,8 +38324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9A7AB5-9A3F-4DAF-941C-31D03FD81CBF}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42253,13 +38398,13 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>9.8233498241585365E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0.17898634415364773</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0.26305114001671548</v>
       </c>
     </row>
@@ -42279,25 +38424,25 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>5.0124416528118172E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.11756366416552944</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.1912319384269629</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>5.8620400677480665E-2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>0.13474706742033055</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>0.21063482805365885</v>
       </c>
     </row>
@@ -42305,37 +38450,37 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>-0.21754052632947346</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-0.12608678065307433</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>-3.9343619951905107E-2</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>8.0643652264283092E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.17797557707104</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.2836656797860394</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>9.6647292011370262E-2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>0.19001836478700623</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>0.29498166456184383</v>
       </c>
     </row>
@@ -42355,25 +38500,25 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>5.2219660496512041E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.18134703239611089</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0.32208409742801686</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>1.6967607597759234E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.12768750526570233</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>0.23923515932811323</v>
       </c>
     </row>
@@ -42481,13 +38626,13 @@
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>-0.3755558562362763</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>-0.18711354789344861</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>-8.9694334177885179E-3</v>
       </c>
     </row>
@@ -42519,13 +38664,13 @@
       <c r="L12">
         <v>8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>-0.41691330452162706</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>-0.20175480254270617</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>-5.9936030367530157E-3</v>
       </c>
     </row>
@@ -43041,25 +39186,25 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>0.13469376841767439</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="1">
+        <v>0.134693768417674</v>
+      </c>
+      <c r="I30" s="1">
         <v>0.20499921709122404</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0.28032635506983983</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>9.4352558824899013E-2</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>0.1772530383099335</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>0.26124835908701305</v>
       </c>
     </row>
@@ -43079,25 +39224,25 @@
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>5.1352163530164599E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>0.12271612052079123</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>0.19616225188444728</v>
       </c>
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>5.0372814868742184E-2</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>0.12771801316946335</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>0.20575684755754536</v>
       </c>
     </row>
@@ -43117,25 +39262,25 @@
       <c r="G32">
         <v>3</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>0.11939723068825384</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>0.21085957430220451</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>0.30846864186407169</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>9.0594345020831468E-2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>0.19278371853576792</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>0.29618375654347678</v>
       </c>
     </row>
@@ -43155,25 +39300,25 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>9.2291647690055878E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>0.20045729281823826</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>0.32131268341927949</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>7.2828711402301655E-2</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>0.18826841286670473</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>0.31411470422426885</v>
       </c>
     </row>
@@ -43281,13 +39426,13 @@
       <c r="L36">
         <v>7</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>-0.41844230213188521</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>-0.22115061800350089</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>-3.7796527550139333E-2</v>
       </c>
     </row>
@@ -43307,25 +39452,25 @@
       <c r="G37">
         <v>8</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>-0.42238291590413679</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>-0.20032032151291077</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>-4.0017405675391721E-3</v>
       </c>
       <c r="L37">
         <v>8</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>-0.42612426296878925</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>-0.20566206451708111</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>-3.9197092017556421E-3</v>
       </c>
     </row>
@@ -43785,7 +39930,7 @@
         <v>1.1175002769559024</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43796,8 +39941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6F6E1-60F5-4D2C-99B8-00E0144214E8}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="S59" sqref="S59"/>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43896,13 +40041,13 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>-0.16508855453199225</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>-9.6121666873602185E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>-2.8531190366363861E-2</v>
       </c>
       <c r="L6">
@@ -43922,13 +40067,13 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>8.5507746930585771E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.16572991117757921</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.25414850265414524</v>
       </c>
       <c r="G7">
@@ -43960,25 +40105,25 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.1593212765491035</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.25805569089173946</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.37069976303273589</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>-0.26968647811967983</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>-0.13381093796554727</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>-9.1756300636273366E-3</v>
       </c>
       <c r="L8">
@@ -43998,13 +40143,13 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>8.1465491722297889E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.20333763602485805</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.3490947768025523</v>
       </c>
       <c r="G9">
@@ -44022,13 +40167,13 @@
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>-0.38337466541483722</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>-0.24612734058265801</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>-0.11052597290743632</v>
       </c>
     </row>
@@ -44098,13 +40243,13 @@
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>-0.38392397357258645</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>-0.19911212310374043</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>-2.9406546448348708E-2</v>
       </c>
     </row>
@@ -44112,13 +40257,13 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>-0.52665503437482974</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-0.30293376510161374</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>-7.8999107874319005E-2</v>
       </c>
       <c r="G12">
@@ -44150,13 +40295,13 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>-0.5236017476777538</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>-0.25961615812872141</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>-9.0847662940028179E-3</v>
       </c>
       <c r="G13">
@@ -44174,13 +40319,13 @@
       <c r="L13">
         <v>9</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>3.5135303805195972E-2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>0.26941923869580769</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>0.50775710875024127</v>
       </c>
     </row>
@@ -44250,13 +40395,13 @@
       <c r="L15">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>2.7042938472897324E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>0.33062359922833567</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>0.65121373240816161</v>
       </c>
     </row>
@@ -44772,25 +40917,25 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>4.916720325771394E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>0.15691949737473138</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>0.26929377422693113</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>1.7903583386255504E-2</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>0.12708817242408504</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>0.24411977199354495</v>
       </c>
     </row>
@@ -44810,25 +40955,25 @@
       <c r="G34">
         <v>5</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>-0.39818256416418729</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>-0.26611005337566795</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>-0.1317376158620365</v>
       </c>
       <c r="L34">
         <v>5</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>-0.48351000382690679</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>-0.33979151396819102</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>-0.20097899571672595</v>
       </c>
     </row>
@@ -44848,25 +40993,25 @@
       <c r="G35">
         <v>6</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>-0.39943209340070818</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>-0.24319375960848763</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>-9.796462826752142E-2</v>
       </c>
       <c r="L35">
         <v>6</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>-0.38139955116586022</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>-0.21739177437209417</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>-7.4738807616235775E-2</v>
       </c>
     </row>
@@ -44886,25 +41031,25 @@
       <c r="G36">
         <v>7</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>-0.51605659746575994</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>-0.32606858509604986</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>-0.15999049033982138</v>
       </c>
       <c r="L36">
         <v>7</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>-0.50272151054905345</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>-0.31037980059149828</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>-0.14019428912613446</v>
       </c>
     </row>
@@ -44924,25 +41069,25 @@
       <c r="G37">
         <v>8</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>-0.48308677934813127</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>-0.26634211775299893</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>-6.9821470836807856E-2</v>
       </c>
       <c r="L37">
         <v>8</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>-0.49572210629492519</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>-0.27904836962908708</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>-7.7259701790335311E-2</v>
       </c>
     </row>
@@ -45402,7 +41547,7 @@
         <v>1.0842099881339893</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45413,8 +41558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A0A6CC-5FB7-4989-9840-22BF9C6E7118}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45487,13 +41632,13 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>1.5704108864462954E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>9.828293273101249E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0.17896379466019149</v>
       </c>
     </row>
@@ -45513,13 +41658,13 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>3.7534379616090116E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>9.7117289225729792E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.1581055673987066</v>
       </c>
       <c r="L6">
@@ -46275,25 +42420,25 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>2.3824127740821467E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>9.8192823216972105E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0.1672089146432883</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>4.718020572608346E-2</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>0.13031699423519782</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>0.215249767356259</v>
       </c>
     </row>
@@ -46377,13 +42522,13 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>3.1049771633640651E-2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.14568263626018574</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.26310175653194734</v>
       </c>
       <c r="G33">
@@ -46439,13 +42584,13 @@
       <c r="L34">
         <v>5</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>-0.24046299030676582</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>-0.12099746245428283</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>-7.136678907484614E-3</v>
       </c>
     </row>
@@ -47019,7 +43164,7 @@
         <v>0.91520368705552457</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47030,31 +43175,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB1C99-76BC-4C9B-B7C2-873CB854D918}">
   <dimension ref="B4:R88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="O4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -48035,24 +44180,24 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="I29" s="1" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="I29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="O29" s="1" t="s">
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="O29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
@@ -49076,4 +45221,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D204CC0A-707E-41DD-8906-4427542D3E84}">
+  <dimension ref="B1:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="92.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75357D-BB0C-4905-8985-3C57D56BFB03}">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>